--- a/辅助总表/奖励配置辅助表/抽卡奖励辅助表.xlsx
+++ b/辅助总表/奖励配置辅助表/抽卡奖励辅助表.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="奖励" sheetId="1" r:id="rId1"/>
     <sheet name="奖励测试" sheetId="4" r:id="rId2"/>
     <sheet name="奖励辅助" sheetId="3" r:id="rId3"/>
     <sheet name="物品" sheetId="2" r:id="rId4"/>
+    <sheet name="映射表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="273">
   <si>
     <t>ID</t>
   </si>
@@ -835,13 +836,6 @@
     <t>洛克</t>
     <rPh sb="0" eb="1">
       <t>luo'ke</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀低武器卡</t>
-    <rPh sb="0" eb="1">
-      <t>dao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,6 +989,139 @@
     <rPh sb="0" eb="1">
       <t>gai'l</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":"i","i":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <rPh sb="0" eb="1">
+      <t>w'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="1">
+      <t>wu'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀低</t>
+  </si>
+  <si>
+    <t>刀中</t>
+  </si>
+  <si>
+    <t>刀高</t>
+  </si>
+  <si>
+    <t>弓弩低</t>
+  </si>
+  <si>
+    <t>弓弩中</t>
+  </si>
+  <si>
+    <t>弓弩高</t>
+  </si>
+  <si>
+    <t>短兵低</t>
+  </si>
+  <si>
+    <t>短兵中</t>
+  </si>
+  <si>
+    <t>短兵高</t>
+  </si>
+  <si>
+    <t>长柄兵器低</t>
+  </si>
+  <si>
+    <t>长柄兵器中</t>
+  </si>
+  <si>
+    <t>长柄兵器高</t>
+  </si>
+  <si>
+    <t>重武器低</t>
+  </si>
+  <si>
+    <t>重武器中</t>
+  </si>
+  <si>
+    <t>重武器高</t>
+  </si>
+  <si>
+    <t>法杖低</t>
+  </si>
+  <si>
+    <t>法杖中</t>
+  </si>
+  <si>
+    <t>法杖高</t>
+  </si>
+  <si>
+    <t>特殊低</t>
+  </si>
+  <si>
+    <t>特殊中</t>
+  </si>
+  <si>
+    <t>特殊高</t>
+  </si>
+  <si>
+    <t>剑低</t>
+  </si>
+  <si>
+    <t>剑中</t>
+  </si>
+  <si>
+    <t>剑高</t>
+  </si>
+  <si>
+    <t>匕首低</t>
+  </si>
+  <si>
+    <t>匕首中</t>
+  </si>
+  <si>
+    <t>匕首高</t>
+  </si>
+  <si>
+    <t>刀低</t>
+    <rPh sb="0" eb="1">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列2</t>
+    <rPh sb="0" eb="1">
+      <t>fu'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列1</t>
+    <rPh sb="0" eb="1">
+      <t>fu'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"t":"a","i":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1420,14 +1547,14 @@
         <v>330001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP(A4,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}]</v>
+        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1441,14 +1568,14 @@
         <v>330002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>VLOOKUP(A5,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1462,10 +1589,10 @@
         <v>330003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP(A6,奖励测试!A:D,4,FALSE)</f>
@@ -1483,10 +1610,10 @@
         <v>330004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>VLOOKUP(A7,奖励测试!A:D,4,FALSE)</f>
@@ -1504,10 +1631,10 @@
         <v>330005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>VLOOKUP(A8,奖励测试!A:D,4,FALSE)</f>
@@ -9296,10 +9423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9523,14 +9650,14 @@
         <v>330001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>"["&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;"]"</f>
-        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}]</v>
+        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -9539,203 +9666,203 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP($A4*1000+G$3,奖励辅助!$B:$L,11,FALSE)</f>
+        <f>VLOOKUP($A4*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
         <v>{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+J$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
       </c>
       <c r="K4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+K$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
       </c>
       <c r="L4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+L$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="M4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+M$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
       </c>
       <c r="N4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+N$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
       </c>
       <c r="O4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+O$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
       </c>
       <c r="P4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+P$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
       </c>
       <c r="Q4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Q$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
       </c>
       <c r="R4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+R$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
       </c>
       <c r="S4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+S$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
       </c>
       <c r="T4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+T$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
       </c>
       <c r="U4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+U$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
       </c>
       <c r="V4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+V$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
       </c>
       <c r="W4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+W$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
       </c>
       <c r="X4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+X$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
       </c>
       <c r="Y4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Y$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
       </c>
       <c r="Z4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Z$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
       </c>
       <c r="AA4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AB4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AC4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AD4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AE4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AE$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AF4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AF$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AG4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AG$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AH4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AH$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AI4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AI$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AJ4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AJ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AK4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AK$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AL4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AL$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AM4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AM$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AN4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AN$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AO4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AO$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AP4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AP$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AQ4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AQ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AR4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AR$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AS4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AS$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AT4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AT$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AU4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AU$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AV4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AV$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AW4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AW$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AX4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AX$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AY4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AY$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AZ4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AZ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="BA4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="BB4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="BC4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="BD4" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -9744,14 +9871,14 @@
         <v>330002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>"["&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -9760,123 +9887,203 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A5*1000+G$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>VLOOKUP($A5*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
         <v>{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+J$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
       </c>
       <c r="K5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+K$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
       </c>
       <c r="L5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+L$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="M5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+M$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
       </c>
       <c r="N5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+N$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
       </c>
       <c r="O5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+O$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
       </c>
       <c r="P5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+P$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
       </c>
       <c r="Q5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Q$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
       </c>
       <c r="R5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+R$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
       </c>
       <c r="S5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+S$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
       </c>
       <c r="T5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+T$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
       </c>
       <c r="U5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+U$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
       </c>
       <c r="V5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+V$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
       </c>
       <c r="W5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+W$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
       </c>
       <c r="X5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+X$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
       </c>
       <c r="Y5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Y$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
       </c>
       <c r="Z5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Z$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}</v>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
       </c>
       <c r="AA5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AB5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AC5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AD5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AE5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AE$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AF5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AF$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AG5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AG$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AH5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AH$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AI5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AI$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AJ5" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AJ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -9885,10 +10092,10 @@
         <v>330003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>"["&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6&amp;AD6&amp;AE6&amp;AF6&amp;AG6&amp;AH6&amp;AI6&amp;AJ6&amp;AK6&amp;AL6&amp;AM6&amp;AN6&amp;AO6&amp;AP6&amp;AQ6&amp;AR6&amp;AS6&amp;AT6&amp;AU6&amp;AV6&amp;AW6&amp;AX6&amp;AY6&amp;AZ6&amp;"]"</f>
@@ -9901,123 +10108,203 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A6*1000+G$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>VLOOKUP($A6*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
         <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+J$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
       </c>
       <c r="K6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+K$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
       </c>
       <c r="L6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+L$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
       </c>
       <c r="M6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+M$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
       </c>
       <c r="N6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+N$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]}</v>
       </c>
       <c r="O6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+O$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]}</v>
       </c>
       <c r="P6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+P$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]}</v>
       </c>
       <c r="Q6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Q$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v>,{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}</v>
       </c>
       <c r="R6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+R$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+S$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+T$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+U$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+V$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="W6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+W$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+X$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Y$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Z6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Z$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AA6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AB6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AC6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AD6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AE6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AE$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AF6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AF$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AG6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AG$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AH6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AH$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AI6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AI$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AJ6" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AJ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD6" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -10026,10 +10313,10 @@
         <v>330004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ref="D7:D8" si="0">"["&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7&amp;AH7&amp;AI7&amp;AJ7&amp;AK7&amp;AL7&amp;AM7&amp;AN7&amp;AO7&amp;AP7&amp;AQ7&amp;AR7&amp;AS7&amp;AT7&amp;AU7&amp;AV7&amp;AW7&amp;AX7&amp;AY7&amp;AZ7&amp;"]"</f>
@@ -10042,123 +10329,203 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A7*1000+G$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>VLOOKUP($A7*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
         <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+J$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+K$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+L$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+M$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+N$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+O$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="P7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+P$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Q7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Q$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="R7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+R$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+S$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+T$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+U$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+V$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="W7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+W$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="X7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+X$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Y$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Z7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Z$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AA7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AB7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AC7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AD7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AE7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AE$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AF7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AF$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AG7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AG$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AH7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AH$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AI7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AI$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AJ7" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AJ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD7" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -10167,10 +10534,10 @@
         <v>330005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10183,131 +10550,719 @@
         <v>2</v>
       </c>
       <c r="G8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($A8*1000+G$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>VLOOKUP($A8*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
         <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+J$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+K$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+L$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+M$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+N$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+O$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="P8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+P$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Q8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Q$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="R8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+R$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="S8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+S$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="T8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+T$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="U8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+U$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="V8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+V$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="W8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+W$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="X8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+X$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Y$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="Z8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Z$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AA8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AA$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AB8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AB$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AC8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AC$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AD8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AD$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AE8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AE$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AF8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AF$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AG8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AG$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AH8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AH$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AI8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AI$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
       <c r="AJ8" t="str">
-        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AJ$3,奖励辅助!$B:$L,11,FALSE),"")</f>
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD8" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="D9" s="3"/>
+      <c r="AD9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD9" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A9*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="3"/>
+      <c r="AD10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD10" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A10*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="AD11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+AZ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+BA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+BB$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+BC$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD11" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A11*1000+BD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="AD12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY12" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A12*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="AD13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AD$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AE$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AF$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AG$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AH$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AI$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AJ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AK13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AK$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AL13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AL$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AM$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AN$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AO$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AP$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AQ$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AR$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AS$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AT$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AU$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AV$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AW$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AX$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY13" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A13*1000+AY$3,奖励辅助!$B:$M,12,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10317,22 +11272,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="102.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>1</v>
       </c>
@@ -10366,34 +11323,48 @@
       <c r="L1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H5" s="4" t="s">
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J4" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H6" s="4" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>95</v>
@@ -10411,10 +11382,13 @@
         <v>93</v>
       </c>
       <c r="G7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" ref="A8:A27" si="0">E8/SUMIF(C:C,C8,E:E)</f>
         <v>1.7857142857142856E-2</v>
@@ -10435,31 +11409,42 @@
       <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8" t="str">
-        <f>IF(E8=0,"",H$5&amp;E8&amp;H$6)</f>
+      <c r="I8" t="str">
+        <f>IF(E8=0,"",I$5&amp;E8&amp;I$6)</f>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I8" t="str">
-        <f>I$6&amp;VLOOKUP(F8,物品!B:C,2,FALSE)</f>
+      <c r="J8" t="str">
+        <f>R8&amp;S8</f>
         <v>{"t":"i","i":21001</v>
       </c>
-      <c r="J8" t="str">
-        <f>J$5&amp;G8&amp;J$6</f>
+      <c r="K8" t="str">
+        <f>K$5&amp;H8&amp;K$6</f>
         <v>,"c":5,"tr":0}</v>
       </c>
-      <c r="K8" t="str">
-        <f>IF(H8="","",K$6)</f>
+      <c r="L8" t="str">
+        <f>IF(I8="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L8" t="str">
-        <f>H8&amp;I8&amp;J8&amp;K8</f>
+      <c r="M8" t="str">
+        <f>I8&amp;J8&amp;K8&amp;L8</f>
         <v>{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R8" t="str">
+        <f>VLOOKUP(G8,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S8">
+        <f>_xlfn.IFNA(VLOOKUP(F8,物品!B:C,2,FALSE),VLOOKUP(F8,物品!H:I,2,FALSE))</f>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
@@ -10480,31 +11465,42 @@
       <c r="F9" t="s">
         <v>227</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" ref="H9:H50" si="2">IF(E9=0,"",H$5&amp;E9&amp;H$6)</f>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I50" si="2">IF(E9=0,"",I$5&amp;E9&amp;I$6)</f>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I9" t="str">
-        <f>I$6&amp;VLOOKUP(F9,物品!B:C,2,FALSE)</f>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J72" si="3">R9&amp;S9</f>
         <v>{"t":"i","i":21007</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" ref="J9:J50" si="3">J$5&amp;G9&amp;J$6</f>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:K50" si="4">K$5&amp;H9&amp;K$6</f>
         <v>,"c":5,"tr":0}</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" ref="K9:K50" si="4">IF(H9="","",K$6)</f>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9:L50" si="5">IF(I9="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" ref="L9:L50" si="5">H9&amp;I9&amp;J9&amp;K9</f>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9:M50" si="6">I9&amp;J9&amp;K9&amp;L9</f>
         <v>{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R9" t="str">
+        <f>VLOOKUP(G9,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S9">
+        <f>_xlfn.IFNA(VLOOKUP(F9,物品!B:C,2,FALSE),VLOOKUP(F9,物品!H:I,2,FALSE))</f>
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
@@ -10525,37 +11521,48 @@
       <c r="F10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I10" t="str">
-        <f>I$6&amp;VLOOKUP(F10,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21010</v>
-      </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21010</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R10" t="str">
+        <f>VLOOKUP(G10,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S10">
+        <f>_xlfn.IFNA(VLOOKUP(F10,物品!B:C,2,FALSE),VLOOKUP(F10,物品!H:I,2,FALSE))</f>
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B31" si="6">C11*1000+D11</f>
+        <f t="shared" ref="B11:B31" si="7">C11*1000+D11</f>
         <v>330001004</v>
       </c>
       <c r="C11">
@@ -10570,37 +11577,48 @@
       <c r="F11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I11" t="str">
-        <f>I$6&amp;VLOOKUP(F11,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21011</v>
-      </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21011</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R11" t="str">
+        <f>VLOOKUP(G11,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S11">
+        <f>_xlfn.IFNA(VLOOKUP(F11,物品!B:C,2,FALSE),VLOOKUP(F11,物品!H:I,2,FALSE))</f>
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001005</v>
       </c>
       <c r="C12">
@@ -10615,37 +11633,48 @@
       <c r="F12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I12" t="str">
-        <f>I$6&amp;VLOOKUP(F12,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21013</v>
-      </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21013</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R12" t="str">
+        <f>VLOOKUP(G12,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S12">
+        <f>_xlfn.IFNA(VLOOKUP(F12,物品!B:C,2,FALSE),VLOOKUP(F12,物品!H:I,2,FALSE))</f>
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001006</v>
       </c>
       <c r="C13">
@@ -10660,37 +11689,48 @@
       <c r="F13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I13" t="str">
-        <f>I$6&amp;VLOOKUP(F13,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21016</v>
-      </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21016</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R13" t="str">
+        <f>VLOOKUP(G13,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S13">
+        <f>_xlfn.IFNA(VLOOKUP(F13,物品!B:C,2,FALSE),VLOOKUP(F13,物品!H:I,2,FALSE))</f>
+        <v>21016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001007</v>
       </c>
       <c r="C14">
@@ -10705,37 +11745,48 @@
       <c r="F14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I14" t="str">
-        <f>I$6&amp;VLOOKUP(F14,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21019</v>
-      </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21019</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R14" t="str">
+        <f>VLOOKUP(G14,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S14">
+        <f>_xlfn.IFNA(VLOOKUP(F14,物品!B:C,2,FALSE),VLOOKUP(F14,物品!H:I,2,FALSE))</f>
+        <v>21019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001008</v>
       </c>
       <c r="C15">
@@ -10750,37 +11801,48 @@
       <c r="F15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I15" t="str">
-        <f>I$6&amp;VLOOKUP(F15,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21020</v>
-      </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21020</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R15" t="str">
+        <f>VLOOKUP(G15,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S15">
+        <f>_xlfn.IFNA(VLOOKUP(F15,物品!B:C,2,FALSE),VLOOKUP(F15,物品!H:I,2,FALSE))</f>
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001009</v>
       </c>
       <c r="C16">
@@ -10795,37 +11857,48 @@
       <c r="F16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I16" t="str">
-        <f>I$6&amp;VLOOKUP(F16,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21021</v>
-      </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21021</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R16" t="str">
+        <f>VLOOKUP(G16,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S16">
+        <f>_xlfn.IFNA(VLOOKUP(F16,物品!B:C,2,FALSE),VLOOKUP(F16,物品!H:I,2,FALSE))</f>
+        <v>21021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001010</v>
       </c>
       <c r="C17">
@@ -10840,37 +11913,48 @@
       <c r="F17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I17" t="str">
-        <f>I$6&amp;VLOOKUP(F17,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21022</v>
-      </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21022</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R17" t="str">
+        <f>VLOOKUP(G17,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S17">
+        <f>_xlfn.IFNA(VLOOKUP(F17,物品!B:C,2,FALSE),VLOOKUP(F17,物品!H:I,2,FALSE))</f>
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001011</v>
       </c>
       <c r="C18">
@@ -10885,37 +11969,48 @@
       <c r="F18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>{"g":20,"i":[</v>
       </c>
-      <c r="I18" t="str">
-        <f>I$6&amp;VLOOKUP(F18,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21023</v>
-      </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21023</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R18" t="str">
+        <f>VLOOKUP(G18,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S18">
+        <f>_xlfn.IFNA(VLOOKUP(F18,物品!B:C,2,FALSE),VLOOKUP(F18,物品!H:I,2,FALSE))</f>
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001012</v>
       </c>
       <c r="C19">
@@ -10928,39 +12023,50 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19">
+        <v>245</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I19" t="str">
-        <f>I$6&amp;VLOOKUP(F19,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22004</v>
-      </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R19" t="str">
+        <f>VLOOKUP(G19,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S19">
+        <f>_xlfn.IFNA(VLOOKUP(F19,物品!B:C,2,FALSE),VLOOKUP(F19,物品!H:I,2,FALSE))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001013</v>
       </c>
       <c r="C20">
@@ -10973,39 +12079,50 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20">
+        <v>248</v>
+      </c>
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I20" t="str">
-        <f>I$6&amp;VLOOKUP(F20,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22007</v>
-      </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":7</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R20" t="str">
+        <f>VLOOKUP(G20,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S20">
+        <f>_xlfn.IFNA(VLOOKUP(F20,物品!B:C,2,FALSE),VLOOKUP(F20,物品!H:I,2,FALSE))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001014</v>
       </c>
       <c r="C21">
@@ -11018,39 +12135,50 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21">
+        <v>251</v>
+      </c>
+      <c r="G21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I21" t="str">
-        <f>I$6&amp;VLOOKUP(F21,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22010</v>
-      </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":10</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R21" t="str">
+        <f>VLOOKUP(G21,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S21">
+        <f>_xlfn.IFNA(VLOOKUP(F21,物品!B:C,2,FALSE),VLOOKUP(F21,物品!H:I,2,FALSE))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001015</v>
       </c>
       <c r="C22">
@@ -11063,39 +12191,50 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22">
+        <v>254</v>
+      </c>
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I22" t="str">
-        <f>I$6&amp;VLOOKUP(F22,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22013</v>
-      </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":13</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R22" t="str">
+        <f>VLOOKUP(G22,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S22">
+        <f>_xlfn.IFNA(VLOOKUP(F22,物品!B:C,2,FALSE),VLOOKUP(F22,物品!H:I,2,FALSE))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001016</v>
       </c>
       <c r="C23">
@@ -11108,39 +12247,50 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23">
+        <v>257</v>
+      </c>
+      <c r="G23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I23" t="str">
-        <f>I$6&amp;VLOOKUP(F23,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22016</v>
-      </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":16</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R23" t="str">
+        <f>VLOOKUP(G23,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S23">
+        <f>_xlfn.IFNA(VLOOKUP(F23,物品!B:C,2,FALSE),VLOOKUP(F23,物品!H:I,2,FALSE))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001017</v>
       </c>
       <c r="C24">
@@ -11153,39 +12303,50 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24">
+        <v>260</v>
+      </c>
+      <c r="G24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I24" t="str">
-        <f>I$6&amp;VLOOKUP(F24,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22019</v>
-      </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":19</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R24" t="str">
+        <f>VLOOKUP(G24,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S24">
+        <f>_xlfn.IFNA(VLOOKUP(F24,物品!B:C,2,FALSE),VLOOKUP(F24,物品!H:I,2,FALSE))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001018</v>
       </c>
       <c r="C25">
@@ -11198,39 +12359,50 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25">
+        <v>263</v>
+      </c>
+      <c r="G25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I25" t="str">
-        <f>I$6&amp;VLOOKUP(F25,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22022</v>
-      </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":22</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R25" t="str">
+        <f>VLOOKUP(G25,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S25">
+        <f>_xlfn.IFNA(VLOOKUP(F25,物品!B:C,2,FALSE),VLOOKUP(F25,物品!H:I,2,FALSE))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330001019</v>
       </c>
       <c r="C26">
@@ -11243,39 +12415,50 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26">
+        <v>266</v>
+      </c>
+      <c r="G26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I26" t="str">
-        <f>I$6&amp;VLOOKUP(F26,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22025</v>
-      </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":25</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R26" t="str">
+        <f>VLOOKUP(G26,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S26">
+        <f>_xlfn.IFNA(VLOOKUP(F26,物品!B:C,2,FALSE),VLOOKUP(F26,物品!H:I,2,FALSE))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="7">C27*1000+D27</f>
+        <f t="shared" ref="B27" si="8">C27*1000+D27</f>
         <v>330001020</v>
       </c>
       <c r="C27">
@@ -11288,40 +12471,92 @@
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27">
+        <v>269</v>
+      </c>
+      <c r="G27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" ref="H27" si="8">IF(E27=0,"",H$5&amp;E27&amp;H$6)</f>
+      <c r="I27" t="str">
+        <f t="shared" ref="I27" si="9">IF(E27=0,"",I$5&amp;E27&amp;I$6)</f>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I27" t="str">
-        <f>I$6&amp;VLOOKUP(F27,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22001</v>
-      </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27" si="9">J$5&amp;G27&amp;J$6</f>
+        <f t="shared" si="3"/>
+        <v>{"t":"a","i":1</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ref="K27" si="10">K$5&amp;H27&amp;K$6</f>
         <v>,"c":1,"tr":0}</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" ref="K27" si="10">IF(H27="","",K$6)</f>
+      <c r="L27" t="str">
+        <f t="shared" ref="L27" si="11">IF(I27="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" ref="L27" si="11">H27&amp;I27&amp;J27&amp;K27</f>
-        <v>{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" t="str">
+        <f t="shared" ref="M27" si="12">I27&amp;J27&amp;K27&amp;L27</f>
+        <v>{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R27" t="str">
+        <f>VLOOKUP(G27,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S27">
+        <f>_xlfn.IFNA(VLOOKUP(F27,物品!B:C,2,FALSE),VLOOKUP(F27,物品!H:I,2,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J28" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
+        <f>VLOOKUP(G28,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F28,物品!B:C,2,FALSE),VLOOKUP(F28,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J29" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" t="e">
+        <f>VLOOKUP(G29,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F29,物品!B:C,2,FALSE),VLOOKUP(F29,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J30" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" t="e">
+        <f>VLOOKUP(G30,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F30,物品!B:C,2,FALSE),VLOOKUP(F30,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" ref="A31:A50" si="12">E31/SUMIF(C:C,C31,E:E)</f>
+        <f t="shared" ref="A31:A50" si="13">E31/SUMIF(C:C,C31,E:E)</f>
         <v>0.05</v>
       </c>
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330002001</v>
       </c>
       <c r="C31">
@@ -11336,37 +12571,48 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I31" t="str">
-        <f>I$6&amp;VLOOKUP(F31,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21001</v>
-      </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21001</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R31" t="str">
+        <f>VLOOKUP(G31,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S31">
+        <f>_xlfn.IFNA(VLOOKUP(F31,物品!B:C,2,FALSE),VLOOKUP(F31,物品!H:I,2,FALSE))</f>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B54" si="13">C32*1000+D32</f>
+        <f t="shared" ref="B32:B54" si="14">C32*1000+D32</f>
         <v>330002002</v>
       </c>
       <c r="C32">
@@ -11381,37 +12627,48 @@
       <c r="F32" t="s">
         <v>227</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I32" t="str">
-        <f>I$6&amp;VLOOKUP(F32,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21007</v>
-      </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21007</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R32" t="str">
+        <f>VLOOKUP(G32,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S32">
+        <f>_xlfn.IFNA(VLOOKUP(F32,物品!B:C,2,FALSE),VLOOKUP(F32,物品!H:I,2,FALSE))</f>
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002003</v>
       </c>
       <c r="C33">
@@ -11426,37 +12683,48 @@
       <c r="F33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I33" t="str">
-        <f>I$6&amp;VLOOKUP(F33,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21010</v>
-      </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21010</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R33" t="str">
+        <f>VLOOKUP(G33,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S33">
+        <f>_xlfn.IFNA(VLOOKUP(F33,物品!B:C,2,FALSE),VLOOKUP(F33,物品!H:I,2,FALSE))</f>
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002004</v>
       </c>
       <c r="C34">
@@ -11471,37 +12739,48 @@
       <c r="F34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34">
         <v>5</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I34" t="str">
-        <f>I$6&amp;VLOOKUP(F34,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21011</v>
-      </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21011</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R34" t="str">
+        <f>VLOOKUP(G34,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S34">
+        <f>_xlfn.IFNA(VLOOKUP(F34,物品!B:C,2,FALSE),VLOOKUP(F34,物品!H:I,2,FALSE))</f>
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002005</v>
       </c>
       <c r="C35">
@@ -11516,37 +12795,48 @@
       <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I35" t="str">
-        <f>I$6&amp;VLOOKUP(F35,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21013</v>
-      </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21013</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R35" t="str">
+        <f>VLOOKUP(G35,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S35">
+        <f>_xlfn.IFNA(VLOOKUP(F35,物品!B:C,2,FALSE),VLOOKUP(F35,物品!H:I,2,FALSE))</f>
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002006</v>
       </c>
       <c r="C36">
@@ -11561,37 +12851,48 @@
       <c r="F36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36">
         <v>5</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I36" t="str">
-        <f>I$6&amp;VLOOKUP(F36,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21016</v>
-      </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21016</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R36" t="str">
+        <f>VLOOKUP(G36,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S36">
+        <f>_xlfn.IFNA(VLOOKUP(F36,物品!B:C,2,FALSE),VLOOKUP(F36,物品!H:I,2,FALSE))</f>
+        <v>21016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002007</v>
       </c>
       <c r="C37">
@@ -11606,37 +12907,48 @@
       <c r="F37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I37" t="str">
-        <f>I$6&amp;VLOOKUP(F37,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21019</v>
-      </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21019</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="5"/>
+        <v>]}</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="6"/>
         <v>{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R37" t="str">
+        <f>VLOOKUP(G37,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S37">
+        <f>_xlfn.IFNA(VLOOKUP(F37,物品!B:C,2,FALSE),VLOOKUP(F37,物品!H:I,2,FALSE))</f>
+        <v>21019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B41" si="14">C38*1000+D38</f>
+        <f t="shared" ref="B38:B41" si="15">C38*1000+D38</f>
         <v>330002008</v>
       </c>
       <c r="C38">
@@ -11651,37 +12963,48 @@
       <c r="F38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" ref="H38:H41" si="15">IF(E38=0,"",H$5&amp;E38&amp;H$6)</f>
+      <c r="I38" t="str">
+        <f t="shared" ref="I38:I41" si="16">IF(E38=0,"",I$5&amp;E38&amp;I$6)</f>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I38" t="str">
-        <f>I$6&amp;VLOOKUP(F38,物品!B:C,2,FALSE)</f>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21020</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" ref="J38:J41" si="16">J$5&amp;G38&amp;J$6</f>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K41" si="17">K$5&amp;H38&amp;K$6</f>
         <v>,"c":5,"tr":0}</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" ref="K38:K41" si="17">IF(H38="","",K$6)</f>
+      <c r="L38" t="str">
+        <f t="shared" ref="L38:L41" si="18">IF(I38="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" ref="L38:L41" si="18">H38&amp;I38&amp;J38&amp;K38</f>
+      <c r="M38" t="str">
+        <f t="shared" ref="M38:M41" si="19">I38&amp;J38&amp;K38&amp;L38</f>
         <v>{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R38" t="str">
+        <f>VLOOKUP(G38,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S38">
+        <f>_xlfn.IFNA(VLOOKUP(F38,物品!B:C,2,FALSE),VLOOKUP(F38,物品!H:I,2,FALSE))</f>
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>330002009</v>
       </c>
       <c r="C39">
@@ -11696,37 +13019,48 @@
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39">
         <v>5</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="15"/>
+      <c r="I39" t="str">
+        <f t="shared" si="16"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I39" t="str">
-        <f>I$6&amp;VLOOKUP(F39,物品!B:C,2,FALSE)</f>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21021</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="16"/>
-        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="17"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="18"/>
+        <v>]}</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="19"/>
         <v>{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R39" t="str">
+        <f>VLOOKUP(G39,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S39">
+        <f>_xlfn.IFNA(VLOOKUP(F39,物品!B:C,2,FALSE),VLOOKUP(F39,物品!H:I,2,FALSE))</f>
+        <v>21021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>330002010</v>
       </c>
       <c r="C40">
@@ -11741,37 +13075,48 @@
       <c r="F40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="15"/>
+      <c r="I40" t="str">
+        <f t="shared" si="16"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I40" t="str">
-        <f>I$6&amp;VLOOKUP(F40,物品!B:C,2,FALSE)</f>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21022</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="16"/>
-        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="17"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="18"/>
+        <v>]}</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="19"/>
         <v>{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R40" t="str">
+        <f>VLOOKUP(G40,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S40">
+        <f>_xlfn.IFNA(VLOOKUP(F40,物品!B:C,2,FALSE),VLOOKUP(F40,物品!H:I,2,FALSE))</f>
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>330002011</v>
       </c>
       <c r="C41">
@@ -11786,37 +13131,48 @@
       <c r="F41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41">
         <v>5</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="15"/>
+      <c r="I41" t="str">
+        <f t="shared" si="16"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I41" t="str">
-        <f>I$6&amp;VLOOKUP(F41,物品!B:C,2,FALSE)</f>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21023</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="16"/>
-        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="17"/>
-        <v>]}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="18"/>
+        <v>]}</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="19"/>
         <v>{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R41" t="str">
+        <f>VLOOKUP(G41,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S41">
+        <f>_xlfn.IFNA(VLOOKUP(F41,物品!B:C,2,FALSE),VLOOKUP(F41,物品!H:I,2,FALSE))</f>
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002012</v>
       </c>
       <c r="C42">
@@ -11829,39 +13185,50 @@
         <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42">
+        <v>244</v>
+      </c>
+      <c r="G42" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="H42" t="str">
+      <c r="I42" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I42" t="str">
-        <f>I$6&amp;VLOOKUP(F42,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22003</v>
-      </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":3</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R42" t="str">
+        <f>VLOOKUP(G42,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S42">
+        <f>_xlfn.IFNA(VLOOKUP(F42,物品!B:C,2,FALSE),VLOOKUP(F42,物品!H:I,2,FALSE))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002013</v>
       </c>
       <c r="C43">
@@ -11874,39 +13241,50 @@
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43">
+        <v>247</v>
+      </c>
+      <c r="G43" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I43" t="str">
-        <f>I$6&amp;VLOOKUP(F43,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22006</v>
-      </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":6</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R43" t="str">
+        <f>VLOOKUP(G43,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S43">
+        <f>_xlfn.IFNA(VLOOKUP(F43,物品!B:C,2,FALSE),VLOOKUP(F43,物品!H:I,2,FALSE))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002014</v>
       </c>
       <c r="C44">
@@ -11919,39 +13297,50 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="H44" t="str">
+      <c r="I44" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I44" t="str">
-        <f>I$6&amp;VLOOKUP(F44,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22009</v>
-      </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":9</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R44" t="str">
+        <f>VLOOKUP(G44,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S44">
+        <f>_xlfn.IFNA(VLOOKUP(F44,物品!B:C,2,FALSE),VLOOKUP(F44,物品!H:I,2,FALSE))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002015</v>
       </c>
       <c r="C45">
@@ -11964,39 +13353,50 @@
         <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45">
+        <v>253</v>
+      </c>
+      <c r="G45" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="H45" t="str">
+      <c r="I45" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I45" t="str">
-        <f>I$6&amp;VLOOKUP(F45,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22012</v>
-      </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":12</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R45" t="str">
+        <f>VLOOKUP(G45,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S45">
+        <f>_xlfn.IFNA(VLOOKUP(F45,物品!B:C,2,FALSE),VLOOKUP(F45,物品!H:I,2,FALSE))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002016</v>
       </c>
       <c r="C46">
@@ -12009,39 +13409,50 @@
         <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46">
+        <v>256</v>
+      </c>
+      <c r="G46" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="H46" t="str">
+      <c r="I46" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I46" t="str">
-        <f>I$6&amp;VLOOKUP(F46,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22015</v>
-      </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":15</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R46" t="str">
+        <f>VLOOKUP(G46,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S46">
+        <f>_xlfn.IFNA(VLOOKUP(F46,物品!B:C,2,FALSE),VLOOKUP(F46,物品!H:I,2,FALSE))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002017</v>
       </c>
       <c r="C47">
@@ -12054,39 +13465,50 @@
         <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="H47" t="str">
+      <c r="I47" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I47" t="str">
-        <f>I$6&amp;VLOOKUP(F47,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22018</v>
-      </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":18</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R47" t="str">
+        <f>VLOOKUP(G47,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S47">
+        <f>_xlfn.IFNA(VLOOKUP(F47,物品!B:C,2,FALSE),VLOOKUP(F47,物品!H:I,2,FALSE))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002018</v>
       </c>
       <c r="C48">
@@ -12099,39 +13521,50 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48">
+        <v>262</v>
+      </c>
+      <c r="G48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="H48" t="str">
+      <c r="I48" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I48" t="str">
-        <f>I$6&amp;VLOOKUP(F48,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22021</v>
-      </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":21</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R48" t="str">
+        <f>VLOOKUP(G48,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S48">
+        <f>_xlfn.IFNA(VLOOKUP(F48,物品!B:C,2,FALSE),VLOOKUP(F48,物品!H:I,2,FALSE))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002019</v>
       </c>
       <c r="C49">
@@ -12144,39 +13577,50 @@
         <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49">
+        <v>265</v>
+      </c>
+      <c r="G49" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="H49" t="str">
+      <c r="I49" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I49" t="str">
-        <f>I$6&amp;VLOOKUP(F49,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22024</v>
-      </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":24</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R49" t="str">
+        <f>VLOOKUP(G49,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S49">
+        <f>_xlfn.IFNA(VLOOKUP(F49,物品!B:C,2,FALSE),VLOOKUP(F49,物品!H:I,2,FALSE))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="B50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330002020</v>
       </c>
       <c r="C50">
@@ -12189,40 +13633,92 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50">
+        <v>268</v>
+      </c>
+      <c r="G50" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
-      <c r="H50" t="str">
+      <c r="I50" t="str">
         <f t="shared" si="2"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I50" t="str">
-        <f>I$6&amp;VLOOKUP(F50,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":22027</v>
-      </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":1,"tr":0}</v>
+        <v>{"t":"a","i":27</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="4"/>
-        <v>]}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="5"/>
-        <v>{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+        <v>]}</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="6"/>
+        <v>{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
+      </c>
+      <c r="R50" t="str">
+        <f>VLOOKUP(G50,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"a","i":</v>
+      </c>
+      <c r="S50">
+        <f>_xlfn.IFNA(VLOOKUP(F50,物品!B:C,2,FALSE),VLOOKUP(F50,物品!H:I,2,FALSE))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J51" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R51" t="e">
+        <f>VLOOKUP(G51,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F51,物品!B:C,2,FALSE),VLOOKUP(F51,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J52" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R52" t="e">
+        <f>VLOOKUP(G52,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S52" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F52,物品!B:C,2,FALSE),VLOOKUP(F52,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J53" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R53" t="e">
+        <f>VLOOKUP(G53,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S53" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F53,物品!B:C,2,FALSE),VLOOKUP(F53,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <f>E54/SUMIF(C:C,C54,E:E)</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330003001</v>
       </c>
       <c r="C54">
@@ -12237,37 +13733,48 @@
       <c r="F54" t="s">
         <v>226</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54">
         <v>25</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" ref="H54:H64" si="19">IF(E54=0,"",H$5&amp;E54&amp;H$6)</f>
+      <c r="I54" t="str">
+        <f t="shared" ref="I54:I64" si="20">IF(E54=0,"",I$5&amp;E54&amp;I$6)</f>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I54" t="str">
-        <f>I$6&amp;VLOOKUP(F54,物品!B:C,2,FALSE)</f>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21001</v>
       </c>
-      <c r="J54" t="str">
-        <f t="shared" ref="J54:J64" si="20">J$5&amp;G54&amp;J$6</f>
+      <c r="K54" t="str">
+        <f t="shared" ref="K54:K64" si="21">K$5&amp;H54&amp;K$6</f>
         <v>,"c":25,"tr":0}</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" ref="K54:K64" si="21">IF(H54="","",K$6)</f>
+      <c r="L54" t="str">
+        <f t="shared" ref="L54:L64" si="22">IF(I54="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" ref="L54:L64" si="22">H54&amp;I54&amp;J54&amp;K54</f>
+      <c r="M54" t="str">
+        <f t="shared" ref="M54:M64" si="23">I54&amp;J54&amp;K54&amp;L54</f>
         <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R54" t="str">
+        <f>VLOOKUP(G54,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S54">
+        <f>_xlfn.IFNA(VLOOKUP(F54,物品!B:C,2,FALSE),VLOOKUP(F54,物品!H:I,2,FALSE))</f>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
-        <f t="shared" ref="A55:A64" si="23">E55/SUMIF(C:C,C55,E:E)</f>
+        <f t="shared" ref="A55:A64" si="24">E55/SUMIF(C:C,C55,E:E)</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B64" si="24">C55*1000+D55</f>
+        <f t="shared" ref="B55:B64" si="25">C55*1000+D55</f>
         <v>330003002</v>
       </c>
       <c r="C55">
@@ -12282,37 +13789,48 @@
       <c r="F55" t="s">
         <v>227</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55">
         <v>25</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="19"/>
+      <c r="I55" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I55" t="str">
-        <f>I$6&amp;VLOOKUP(F55,物品!B:C,2,FALSE)</f>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21007</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R55" t="str">
+        <f>VLOOKUP(G55,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S55">
+        <f>_xlfn.IFNA(VLOOKUP(F55,物品!B:C,2,FALSE),VLOOKUP(F55,物品!H:I,2,FALSE))</f>
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003003</v>
       </c>
       <c r="C56">
@@ -12327,37 +13845,48 @@
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56">
         <v>25</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="19"/>
+      <c r="I56" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I56" t="str">
-        <f>I$6&amp;VLOOKUP(F56,物品!B:C,2,FALSE)</f>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21010</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R56" t="str">
+        <f>VLOOKUP(G56,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S56">
+        <f>_xlfn.IFNA(VLOOKUP(F56,物品!B:C,2,FALSE),VLOOKUP(F56,物品!H:I,2,FALSE))</f>
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003004</v>
       </c>
       <c r="C57">
@@ -12372,37 +13901,48 @@
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57">
         <v>25</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="19"/>
+      <c r="I57" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I57" t="str">
-        <f>I$6&amp;VLOOKUP(F57,物品!B:C,2,FALSE)</f>
+      <c r="J57" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21011</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R57" t="str">
+        <f>VLOOKUP(G57,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S57">
+        <f>_xlfn.IFNA(VLOOKUP(F57,物品!B:C,2,FALSE),VLOOKUP(F57,物品!H:I,2,FALSE))</f>
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003005</v>
       </c>
       <c r="C58">
@@ -12417,37 +13957,48 @@
       <c r="F58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58">
         <v>25</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="19"/>
+      <c r="I58" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I58" t="str">
-        <f>I$6&amp;VLOOKUP(F58,物品!B:C,2,FALSE)</f>
+      <c r="J58" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21013</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R58" t="str">
+        <f>VLOOKUP(G58,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S58">
+        <f>_xlfn.IFNA(VLOOKUP(F58,物品!B:C,2,FALSE),VLOOKUP(F58,物品!H:I,2,FALSE))</f>
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003006</v>
       </c>
       <c r="C59">
@@ -12462,37 +14013,48 @@
       <c r="F59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59">
         <v>25</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="19"/>
+      <c r="I59" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I59" t="str">
-        <f>I$6&amp;VLOOKUP(F59,物品!B:C,2,FALSE)</f>
+      <c r="J59" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21016</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R59" t="str">
+        <f>VLOOKUP(G59,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S59">
+        <f>_xlfn.IFNA(VLOOKUP(F59,物品!B:C,2,FALSE),VLOOKUP(F59,物品!H:I,2,FALSE))</f>
+        <v>21016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003007</v>
       </c>
       <c r="C60">
@@ -12507,37 +14069,48 @@
       <c r="F60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60">
         <v>25</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="19"/>
+      <c r="I60" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I60" t="str">
-        <f>I$6&amp;VLOOKUP(F60,物品!B:C,2,FALSE)</f>
+      <c r="J60" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21019</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R60" t="str">
+        <f>VLOOKUP(G60,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S60">
+        <f>_xlfn.IFNA(VLOOKUP(F60,物品!B:C,2,FALSE),VLOOKUP(F60,物品!H:I,2,FALSE))</f>
+        <v>21019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003008</v>
       </c>
       <c r="C61">
@@ -12552,37 +14125,48 @@
       <c r="F61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61">
         <v>25</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="19"/>
+      <c r="I61" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I61" t="str">
-        <f>I$6&amp;VLOOKUP(F61,物品!B:C,2,FALSE)</f>
+      <c r="J61" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21020</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R61" t="str">
+        <f>VLOOKUP(G61,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S61">
+        <f>_xlfn.IFNA(VLOOKUP(F61,物品!B:C,2,FALSE),VLOOKUP(F61,物品!H:I,2,FALSE))</f>
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003009</v>
       </c>
       <c r="C62">
@@ -12597,37 +14181,48 @@
       <c r="F62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62">
         <v>25</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="19"/>
+      <c r="I62" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I62" t="str">
-        <f>I$6&amp;VLOOKUP(F62,物品!B:C,2,FALSE)</f>
+      <c r="J62" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21021</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R62" t="str">
+        <f>VLOOKUP(G62,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S62">
+        <f>_xlfn.IFNA(VLOOKUP(F62,物品!B:C,2,FALSE),VLOOKUP(F62,物品!H:I,2,FALSE))</f>
+        <v>21021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003010</v>
       </c>
       <c r="C63">
@@ -12642,37 +14237,48 @@
       <c r="F63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63">
         <v>25</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="19"/>
+      <c r="I63" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I63" t="str">
-        <f>I$6&amp;VLOOKUP(F63,物品!B:C,2,FALSE)</f>
+      <c r="J63" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21022</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R63" t="str">
+        <f>VLOOKUP(G63,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S63">
+        <f>_xlfn.IFNA(VLOOKUP(F63,物品!B:C,2,FALSE),VLOOKUP(F63,物品!H:I,2,FALSE))</f>
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="B64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>330003011</v>
       </c>
       <c r="C64">
@@ -12687,46 +14293,96 @@
       <c r="F64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H64">
         <v>25</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="19"/>
+      <c r="I64" t="str">
+        <f t="shared" si="20"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I64" t="str">
-        <f>I$6&amp;VLOOKUP(F64,物品!B:C,2,FALSE)</f>
+      <c r="J64" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21023</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="20"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="21"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="22"/>
+        <v>]}</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="23"/>
         <v>{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R64" t="str">
+        <f>VLOOKUP(G64,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S64">
+        <f>_xlfn.IFNA(VLOOKUP(F64,物品!B:C,2,FALSE),VLOOKUP(F64,物品!H:I,2,FALSE))</f>
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G65" s="1"/>
+      <c r="J65" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R65" t="e">
+        <f>VLOOKUP(G65,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S65" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F65,物品!B:C,2,FALSE),VLOOKUP(F65,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G66" s="6"/>
+      <c r="J66" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R66" t="e">
+        <f>VLOOKUP(G66,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F66,物品!B:C,2,FALSE),VLOOKUP(F66,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G67" s="1"/>
+      <c r="J67" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R67" t="e">
+        <f>VLOOKUP(G67,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S67" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F67,物品!B:C,2,FALSE),VLOOKUP(F67,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" ref="A68" si="25">E68/SUMIF(C:C,C68,E:E)</f>
+        <f t="shared" ref="A68" si="26">E68/SUMIF(C:C,C68,E:E)</f>
         <v>1</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B72" si="26">C68*1000+D68</f>
+        <f t="shared" ref="B68:B72" si="27">C68*1000+D68</f>
         <v>330004001</v>
       </c>
       <c r="C68">
@@ -12741,38 +14397,90 @@
       <c r="F68" t="s">
         <v>227</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68">
         <v>25</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" ref="H68:H72" si="27">IF(E68=0,"",H$5&amp;E68&amp;H$6)</f>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I72" si="28">IF(E68=0,"",I$5&amp;E68&amp;I$6)</f>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I68" t="str">
-        <f>I$6&amp;VLOOKUP(F68,物品!B:C,2,FALSE)</f>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21007</v>
       </c>
-      <c r="J68" t="str">
-        <f t="shared" ref="J68:J72" si="28">J$5&amp;G68&amp;J$6</f>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K72" si="29">K$5&amp;H68&amp;K$6</f>
         <v>,"c":25,"tr":0}</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K72" si="29">IF(H68="","",K$6)</f>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L72" si="30">IF(I68="","",L$6)</f>
         <v>]}</v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" ref="L68:L72" si="30">H68&amp;I68&amp;J68&amp;K68</f>
+      <c r="M68" t="str">
+        <f t="shared" ref="M68:M72" si="31">I68&amp;J68&amp;K68&amp;L68</f>
         <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="R68" t="str">
+        <f>VLOOKUP(G68,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S68">
+        <f>_xlfn.IFNA(VLOOKUP(F68,物品!B:C,2,FALSE),VLOOKUP(F68,物品!H:I,2,FALSE))</f>
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J69" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R69" t="e">
+        <f>VLOOKUP(G69,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S69" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F69,物品!B:C,2,FALSE),VLOOKUP(F69,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J70" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R70" t="e">
+        <f>VLOOKUP(G70,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S70" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F70,物品!B:C,2,FALSE),VLOOKUP(F70,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J71" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R71" t="e">
+        <f>VLOOKUP(G71,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S71" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F71,物品!B:C,2,FALSE),VLOOKUP(F71,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f t="shared" ref="A72" si="31">E72/SUMIF(C:C,C72,E:E)</f>
+        <f t="shared" ref="A72" si="32">E72/SUMIF(C:C,C72,E:E)</f>
         <v>1</v>
       </c>
       <c r="B72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>330005001</v>
       </c>
       <c r="C72">
@@ -12787,28 +14495,39 @@
       <c r="F72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72">
         <v>25</v>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" si="27"/>
+      <c r="I72" t="str">
+        <f t="shared" si="28"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="I72" t="str">
-        <f>I$6&amp;VLOOKUP(F72,物品!B:C,2,FALSE)</f>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
         <v>{"t":"i","i":21013</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="28"/>
-        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="29"/>
-        <v>]}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="30"/>
+        <v>]}</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="31"/>
         <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R72" t="str">
+        <f>VLOOKUP(G72,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S72">
+        <f>_xlfn.IFNA(VLOOKUP(F72,物品!B:C,2,FALSE),VLOOKUP(F72,物品!H:I,2,FALSE))</f>
+        <v>21013</v>
       </c>
     </row>
   </sheetData>
@@ -12821,8 +14540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12840,9 +14559,15 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -12859,9 +14584,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -12878,9 +14609,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -12897,9 +14634,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4</f>
+        <v>1</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -12916,9 +14660,16 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I30" si="0">G5</f>
+        <v>2</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -12935,9 +14686,16 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
@@ -12954,9 +14712,16 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
@@ -12973,9 +14738,16 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -12992,9 +14764,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -13011,9 +14790,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -13030,9 +14816,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -13049,9 +14842,16 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -13068,9 +14868,16 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
@@ -13087,9 +14894,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -13106,9 +14920,16 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -13125,9 +14946,16 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -13144,9 +14972,16 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -13163,9 +14998,16 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -13182,9 +15024,16 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
@@ -13201,9 +15050,16 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
@@ -13220,9 +15076,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
@@ -13239,9 +15102,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
@@ -13258,9 +15128,16 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -13277,9 +15154,16 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
@@ -13296,9 +15180,16 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
@@ -13315,9 +15206,16 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
@@ -13334,9 +15232,16 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
@@ -13353,9 +15258,16 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="1">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
@@ -13372,9 +15284,16 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="1">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -13391,9 +15310,16 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="1">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
@@ -13410,9 +15336,6 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
@@ -13429,9 +15352,6 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
@@ -13448,9 +15368,6 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -13467,9 +15384,6 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
@@ -13486,9 +15400,6 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
@@ -13505,9 +15416,6 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
@@ -13524,9 +15432,6 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
@@ -13543,9 +15448,6 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
@@ -13562,9 +15464,6 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
@@ -13581,9 +15480,6 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
@@ -13600,9 +15496,6 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
@@ -13619,9 +15512,6 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
@@ -13638,9 +15528,6 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
@@ -13657,9 +15544,6 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
@@ -13676,9 +15560,6 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
@@ -13695,9 +15576,6 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
@@ -13714,9 +15592,6 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
@@ -13733,9 +15608,6 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
@@ -13752,9 +15624,6 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
@@ -13771,9 +15640,6 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
@@ -13790,9 +15656,6 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
@@ -13809,9 +15672,6 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
@@ -13828,9 +15688,6 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
@@ -13847,9 +15704,6 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
@@ -13866,9 +15720,6 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
@@ -13885,9 +15736,6 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
@@ -13904,9 +15752,6 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
@@ -13923,9 +15768,6 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
@@ -13942,9 +15784,6 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
@@ -13961,9 +15800,6 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
@@ -13980,9 +15816,6 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
@@ -13999,9 +15832,6 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
@@ -14018,9 +15848,6 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
@@ -14037,9 +15864,6 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
@@ -14056,9 +15880,6 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
@@ -14075,9 +15896,6 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
@@ -14094,9 +15912,6 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
@@ -14113,9 +15928,6 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
@@ -14132,9 +15944,6 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
@@ -14151,9 +15960,6 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
@@ -14170,9 +15976,6 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
@@ -14189,9 +15992,6 @@
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
       <c r="J72" s="1"/>
       <c r="K72" s="2"/>
     </row>
@@ -14208,9 +16008,6 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
@@ -14227,9 +16024,6 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
@@ -14246,9 +16040,6 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
@@ -14265,9 +16056,6 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
@@ -14284,9 +16072,6 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
@@ -14303,9 +16088,6 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
@@ -14322,9 +16104,6 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
@@ -14341,9 +16120,6 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="2"/>
       <c r="J80" s="1"/>
       <c r="K80" s="2"/>
     </row>
@@ -14358,9 +16134,6 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
@@ -14375,9 +16148,6 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
@@ -14394,9 +16164,6 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
@@ -14413,9 +16180,6 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
@@ -14432,9 +16196,6 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
@@ -14451,9 +16212,6 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
@@ -14470,9 +16228,6 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
@@ -14489,9 +16244,6 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
@@ -14508,9 +16260,6 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
@@ -14527,9 +16276,6 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
@@ -14546,9 +16292,6 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
@@ -14565,9 +16308,6 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
@@ -14584,9 +16324,6 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
@@ -15941,6 +17678,42 @@
       </c>
       <c r="C216">
         <v>29003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/辅助总表/奖励配置辅助表/抽卡奖励辅助表.xlsx
+++ b/辅助总表/奖励配置辅助表/抽卡奖励辅助表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -490,60 +490,12 @@
     <t>匕首高武器卡</t>
   </si>
   <si>
-    <t>莉莉丝</t>
-  </si>
-  <si>
-    <t>未命名1</t>
-  </si>
-  <si>
-    <t>未命名2</t>
-  </si>
-  <si>
-    <t>未命名3</t>
-  </si>
-  <si>
-    <t>未命名4</t>
-  </si>
-  <si>
-    <t>未命名5</t>
-  </si>
-  <si>
-    <t>洛克</t>
-  </si>
-  <si>
-    <t>未命名6</t>
-  </si>
-  <si>
-    <t>未命名7</t>
-  </si>
-  <si>
-    <t>啾啾</t>
-  </si>
-  <si>
     <t>贝蒂</t>
   </si>
   <si>
-    <t>未命名8</t>
-  </si>
-  <si>
-    <t>麦克白</t>
-  </si>
-  <si>
-    <t>未命名9</t>
-  </si>
-  <si>
-    <t>未命名10</t>
-  </si>
-  <si>
     <t>吉拉</t>
   </si>
   <si>
-    <t>未命名11</t>
-  </si>
-  <si>
-    <t>未命名12</t>
-  </si>
-  <si>
     <t>珍妮芙</t>
   </si>
   <si>
@@ -557,9 +509,6 @@
   </si>
   <si>
     <t>霍尔</t>
-  </si>
-  <si>
-    <t>未命名13</t>
   </si>
   <si>
     <t>1星升星材料</t>
@@ -627,51 +576,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>角色升星材料1-1</t>
-  </si>
-  <si>
-    <t>角色升星材料1-2</t>
-  </si>
-  <si>
-    <t>角色升星材料2-1</t>
-  </si>
-  <si>
-    <t>角色升星材料2-2</t>
-  </si>
-  <si>
-    <t>角色升星材料3-1</t>
-  </si>
-  <si>
-    <t>角色升星材料3-2</t>
-  </si>
-  <si>
-    <t>角色升星材料4-1</t>
-  </si>
-  <si>
-    <t>角色升星材料4-2</t>
-  </si>
-  <si>
-    <t>角色升星材料5-1</t>
-  </si>
-  <si>
-    <t>角色升星材料5-2</t>
-  </si>
-  <si>
-    <t>通用伙伴伙伴强化材料1</t>
-  </si>
-  <si>
-    <t>通用伙伴伙伴强化材料2</t>
-  </si>
-  <si>
-    <t>通用伙伴伙伴强化材料3</t>
-  </si>
-  <si>
-    <t>通用伙伴伙伴强化材料4</t>
-  </si>
-  <si>
-    <t>通用伙伴伙伴强化材料5</t>
-  </si>
-  <si>
     <t>伙伴强化材料1-1</t>
   </si>
   <si>
@@ -726,104 +630,40 @@
     <t>伙伴强化材料9-2</t>
   </si>
   <si>
-    <t>装备进阶材料1-1</t>
-  </si>
-  <si>
-    <t>装备进阶材料1-2</t>
-  </si>
-  <si>
-    <t>装备进阶材料2-1</t>
-  </si>
-  <si>
-    <t>装备进阶材料2-2</t>
-  </si>
-  <si>
-    <t>装备进阶材料3-1</t>
-  </si>
-  <si>
-    <t>装备进阶材料3-2</t>
-  </si>
-  <si>
-    <t>装备进阶材料4-1</t>
-  </si>
-  <si>
-    <t>装备进阶材料4-2</t>
-  </si>
-  <si>
-    <t>装备进阶材料5-1</t>
-  </si>
-  <si>
     <t>装备进阶材料5-2</t>
   </si>
   <si>
-    <t>装备进阶材料6-1</t>
-  </si>
-  <si>
     <t>装备进阶材料6-2</t>
   </si>
   <si>
-    <t>装备进阶材料7-1</t>
-  </si>
-  <si>
     <t>装备进阶材料7-2</t>
   </si>
   <si>
-    <t>装备进阶材料8-1</t>
-  </si>
-  <si>
     <t>装备进阶材料8-2</t>
   </si>
   <si>
-    <t>装备强化矿石1</t>
-  </si>
-  <si>
     <t>装备强化矿石2</t>
   </si>
   <si>
     <t>装备强化矿石3</t>
   </si>
   <si>
-    <t>时装升级材料1</t>
-  </si>
-  <si>
     <t>时装升级材料2</t>
   </si>
   <si>
     <t>时装升级材料3</t>
   </si>
   <si>
-    <t>坐骑升级材料1</t>
-  </si>
-  <si>
     <t>坐骑升级材料2</t>
   </si>
   <si>
     <t>坐骑升级材料3</t>
   </si>
   <si>
-    <t>翅膀升级材料1</t>
-  </si>
-  <si>
     <t>翅膀升级材料2</t>
   </si>
   <si>
     <t>翅膀升级材料3</t>
-  </si>
-  <si>
-    <t>装扮升星材料</t>
-    <rPh sb="4" eb="5">
-      <t>cai'l</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级经验丹</t>
-  </si>
-  <si>
-    <t>中级经验丹</t>
-  </si>
-  <si>
-    <t>高级经验丹</t>
   </si>
   <si>
     <t>莉莉丝</t>
@@ -1124,12 +964,344 @@
     <t>{"t":"a","i":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>洛克</t>
+    <rPh sb="0" eb="1">
+      <t>luo'ke</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤朵拉</t>
+    <rPh sb="0" eb="1">
+      <t>you'duo'la</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德蒙</t>
+    <rPh sb="0" eb="1">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>de'meng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉拉</t>
+    <rPh sb="0" eb="1">
+      <t>ji'la</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修</t>
+    <rPh sb="0" eb="1">
+      <t>xiu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂</t>
+    <rPh sb="0" eb="1">
+      <t>bei'di</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾琳</t>
+    <rPh sb="0" eb="1">
+      <t>ai'lin</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧翠丝</t>
+    <rPh sb="0" eb="1">
+      <t>bi'cui's</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤尼丝</t>
+    <rPh sb="0" eb="1">
+      <t>you'ni'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼尔斯</t>
+    <rPh sb="0" eb="1">
+      <t>ni'er'si</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯拉</t>
+    <rPh sb="0" eb="1">
+      <t>ke'nan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍妮芙</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ni'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'ro</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔</t>
+    <rPh sb="0" eb="1">
+      <t>huo'er</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王</t>
+    <rPh sb="0" eb="1">
+      <t>guo'w</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊西多</t>
+    <rPh sb="0" eb="1">
+      <t>yi'xi'duo</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜塔莎</t>
+    <rPh sb="0" eb="1">
+      <t>na'ta'sha</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱茉莉</t>
+    <rPh sb="0" eb="1">
+      <t>ai'mo'li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名1</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ming'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名2</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ming'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名3</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ming'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名4</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ming'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名5</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ming'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料4-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星材料5-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用伙伴伙伴强化材料1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用伙伴伙伴强化材料2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用伙伴伙伴强化材料3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用伙伴伙伴强化材料4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用伙伴伙伴强化材料5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料1-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料1-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料2-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料2-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料3-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料3-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料4-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料4-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料5-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料6-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料7-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料8-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化矿石1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装升级材料1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑升级材料1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀升级材料1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装扮升星材料</t>
+    <rPh sb="4" eb="5">
+      <t>cai'l</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1153,8 +1325,18 @@
       <sz val="9"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1186,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1194,11 +1382,107 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1547,14 +1831,14 @@
         <v>330001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP(A4,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
+        <v>[{"g":20,"i":[{"t":"i","i":21003,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21014,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21017,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21015,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1568,14 +1852,14 @@
         <v>330002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>VLOOKUP(A5,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21003,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21014,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21017,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21006,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21015,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1589,14 +1873,14 @@
         <v>330003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP(A6,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21003,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21004,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21005,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21006,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21008,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21009,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21012,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21014,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21015,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21017,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21018,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1610,14 +1894,14 @@
         <v>330004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>VLOOKUP(A7,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1631,14 +1915,14 @@
         <v>330005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>VLOOKUP(A8,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -9650,14 +9934,14 @@
         <v>330001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>"["&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;"]"</f>
-        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
+        <v>[{"g":20,"i":[{"t":"i","i":21003,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21014,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21017,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21015,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -9667,83 +9951,83 @@
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP($A4*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21003,"c":5,"tr":0}]}</v>
       </c>
       <c r="H4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21014,"c":5,"tr":0}]}</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21017,"c":5,"tr":0}]}</v>
       </c>
       <c r="M4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21006,"c":5,"tr":0}]}</v>
       </c>
       <c r="N4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="O4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21015,"c":5,"tr":0}]}</v>
       </c>
       <c r="P4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
       </c>
       <c r="Q4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
       </c>
       <c r="R4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
       </c>
       <c r="S4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
       </c>
       <c r="T4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
       </c>
       <c r="U4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
       </c>
       <c r="V4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
       </c>
       <c r="W4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
       </c>
       <c r="X4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
       </c>
       <c r="Y4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
+        <v/>
       </c>
       <c r="Z4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
+        <v/>
       </c>
       <c r="AA4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -9871,14 +10155,14 @@
         <v>330002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>"["&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21003,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21014,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21017,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21006,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]},{"g":100,"i":[{"t":"i","i":21015,"c":5,"tr":0}]},{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]},{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -9888,83 +10172,83 @@
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP($A5*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21003,"c":5,"tr":0}]}</v>
       </c>
       <c r="H5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
       <c r="I5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21014,"c":5,"tr":0}]}</v>
       </c>
       <c r="L5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21017,"c":5,"tr":0}]}</v>
       </c>
       <c r="M5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21006,"c":5,"tr":0}]}</v>
       </c>
       <c r="N5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21015,"c":5,"tr":0}]}</v>
       </c>
       <c r="P5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
       </c>
       <c r="Q5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
       </c>
       <c r="R5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
       </c>
       <c r="S5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
       </c>
       <c r="T5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
       </c>
       <c r="U5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
       </c>
       <c r="V5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
       </c>
       <c r="W5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
       </c>
       <c r="X5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
       </c>
       <c r="Y5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
+        <v/>
       </c>
       <c r="Z5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
+        <v/>
       </c>
       <c r="AA5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AA$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -10092,14 +10376,14 @@
         <v>330003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>"["&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6&amp;AD6&amp;AE6&amp;AF6&amp;AG6&amp;AH6&amp;AI6&amp;AJ6&amp;AK6&amp;AL6&amp;AM6&amp;AN6&amp;AO6&amp;AP6&amp;AQ6&amp;AR6&amp;AS6&amp;AT6&amp;AU6&amp;AV6&amp;AW6&amp;AX6&amp;AY6&amp;AZ6&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21003,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21004,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21005,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21006,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21008,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21009,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21012,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21014,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21015,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21017,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21018,"c":25,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -10113,75 +10397,75 @@
       </c>
       <c r="H6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}</v>
       </c>
       <c r="I6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21003,"c":25,"tr":0}]}</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21004,"c":25,"tr":0}]}</v>
       </c>
       <c r="K6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21005,"c":25,"tr":0}]}</v>
       </c>
       <c r="L6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+L$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21006,"c":25,"tr":0}]}</v>
       </c>
       <c r="M6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+M$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
       <c r="N6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+N$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21008,"c":25,"tr":0}]}</v>
       </c>
       <c r="O6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+O$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21009,"c":25,"tr":0}]}</v>
       </c>
       <c r="P6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+P$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
       </c>
       <c r="Q6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Q$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
       </c>
       <c r="R6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+R$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21012,"c":25,"tr":0}]}</v>
       </c>
       <c r="S6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+S$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
       </c>
       <c r="T6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+T$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21014,"c":25,"tr":0}]}</v>
       </c>
       <c r="U6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+U$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21015,"c":25,"tr":0}]}</v>
       </c>
       <c r="V6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+V$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
       </c>
       <c r="W6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+W$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21017,"c":25,"tr":0}]}</v>
       </c>
       <c r="X6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+X$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21018,"c":25,"tr":0}]}</v>
       </c>
       <c r="Y6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Y$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
       </c>
       <c r="Z6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+Z$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -10313,14 +10597,14 @@
         <v>330004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ref="D7:D8" si="0">"["&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7&amp;AH7&amp;AI7&amp;AJ7&amp;AK7&amp;AL7&amp;AM7&amp;AN7&amp;AO7&amp;AP7&amp;AQ7&amp;AR7&amp;AS7&amp;AT7&amp;AU7&amp;AV7&amp;AW7&amp;AX7&amp;AY7&amp;AZ7&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -10330,7 +10614,7 @@
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP($A7*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
       </c>
       <c r="H7" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A7*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -10534,14 +10818,14 @@
         <v>330005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}]</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -10551,7 +10835,7 @@
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP($A8*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}</v>
       </c>
       <c r="H8" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A8*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -11272,10 +11556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11327,15 +11611,15 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="S1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J4" s="4" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -11364,7 +11648,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>95</v>
@@ -11382,7 +11666,7 @@
         <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
         <v>94</v>
@@ -11390,8 +11674,8 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f t="shared" ref="A8:A27" si="0">E8/SUMIF(C:C,C8,E:E)</f>
-        <v>1.7857142857142856E-2</v>
+        <f>E8/SUMIF(C:C,C8,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B8">
         <f>C8*1000+D8</f>
@@ -11407,7 +11691,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
         <v>93</v>
@@ -11421,7 +11705,7 @@
       </c>
       <c r="J8" t="str">
         <f>R8&amp;S8</f>
-        <v>{"t":"i","i":21001</v>
+        <v>{"t":"i","i":21003</v>
       </c>
       <c r="K8" t="str">
         <f>K$5&amp;H8&amp;K$6</f>
@@ -11433,7 +11717,7 @@
       </c>
       <c r="M8" t="str">
         <f>I8&amp;J8&amp;K8&amp;L8</f>
-        <v>{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21003,"c":5,"tr":0}]}</v>
       </c>
       <c r="R8" t="str">
         <f>VLOOKUP(G8,映射表!A:B,2,FALSE)</f>
@@ -11441,16 +11725,16 @@
       </c>
       <c r="S8">
         <f>_xlfn.IFNA(VLOOKUP(F8,物品!B:C,2,FALSE),VLOOKUP(F8,物品!H:I,2,FALSE))</f>
-        <v>21001</v>
+        <v>21003</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E9/SUMIF(C:C,C9,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B10" si="1">C9*1000+D9</f>
+        <f t="shared" ref="B9" si="0">C9*1000+D9</f>
         <v>330001002</v>
       </c>
       <c r="C9">
@@ -11463,7 +11747,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>93</v>
@@ -11472,24 +11756,24 @@
         <v>5</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9:I50" si="2">IF(E9=0,"",I$5&amp;E9&amp;I$6)</f>
+        <f t="shared" ref="I9:I46" si="1">IF(E9=0,"",I$5&amp;E9&amp;I$6)</f>
         <v>{"g":20,"i":[</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J72" si="3">R9&amp;S9</f>
-        <v>{"t":"i","i":21007</v>
+        <f t="shared" ref="J9:J77" si="2">R9&amp;S9</f>
+        <v>{"t":"i","i":21001</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:K50" si="4">K$5&amp;H9&amp;K$6</f>
+        <f t="shared" ref="K9:K46" si="3">K$5&amp;H9&amp;K$6</f>
         <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9:L50" si="5">IF(I9="","",L$6)</f>
+        <f t="shared" ref="L9:L46" si="4">IF(I9="","",L$6)</f>
         <v>]}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ref="M9:M50" si="6">I9&amp;J9&amp;K9&amp;L9</f>
-        <v>{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
+        <f t="shared" ref="M9:M46" si="5">I9&amp;J9&amp;K9&amp;L9</f>
+        <v>{"g":20,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
       </c>
       <c r="R9" t="str">
         <f>VLOOKUP(G9,映射表!A:B,2,FALSE)</f>
@@ -11497,16 +11781,16 @@
       </c>
       <c r="S9">
         <f>_xlfn.IFNA(VLOOKUP(F9,物品!B:C,2,FALSE),VLOOKUP(F9,物品!H:I,2,FALSE))</f>
-        <v>21007</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E10/SUMIF(C:C,C10,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B10:B29" si="6">C10*1000+D10</f>
         <v>330001003</v>
       </c>
       <c r="C10">
@@ -11519,7 +11803,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
         <v>93</v>
@@ -11528,24 +11812,24 @@
         <v>5</v>
       </c>
       <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J10" t="str">
+        <v>{"t":"i","i":21007</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21010</v>
-      </c>
-      <c r="K10" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L10" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="R10" t="str">
         <f>VLOOKUP(G10,映射表!A:B,2,FALSE)</f>
@@ -11553,16 +11837,16 @@
       </c>
       <c r="S10">
         <f>_xlfn.IFNA(VLOOKUP(F10,物品!B:C,2,FALSE),VLOOKUP(F10,物品!H:I,2,FALSE))</f>
-        <v>21010</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E11/SUMIF(C:C,C11,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B31" si="7">C11*1000+D11</f>
+        <f t="shared" si="6"/>
         <v>330001004</v>
       </c>
       <c r="C11">
@@ -11575,7 +11859,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
         <v>93</v>
@@ -11584,24 +11868,24 @@
         <v>5</v>
       </c>
       <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J11" t="str">
+        <v>{"t":"i","i":21005</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21011</v>
-      </c>
-      <c r="K11" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L11" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
       </c>
       <c r="R11" t="str">
         <f>VLOOKUP(G11,映射表!A:B,2,FALSE)</f>
@@ -11609,16 +11893,16 @@
       </c>
       <c r="S11">
         <f>_xlfn.IFNA(VLOOKUP(F11,物品!B:C,2,FALSE),VLOOKUP(F11,物品!H:I,2,FALSE))</f>
-        <v>21011</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E12/SUMIF(C:C,C12,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001005</v>
       </c>
       <c r="C12">
@@ -11631,7 +11915,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>93</v>
@@ -11640,24 +11924,24 @@
         <v>5</v>
       </c>
       <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J12" t="str">
+        <v>{"t":"i","i":21014</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21013</v>
-      </c>
-      <c r="K12" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L12" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21014,"c":5,"tr":0}]}</v>
       </c>
       <c r="R12" t="str">
         <f>VLOOKUP(G12,映射表!A:B,2,FALSE)</f>
@@ -11665,16 +11949,16 @@
       </c>
       <c r="S12">
         <f>_xlfn.IFNA(VLOOKUP(F12,物品!B:C,2,FALSE),VLOOKUP(F12,物品!H:I,2,FALSE))</f>
-        <v>21013</v>
+        <v>21014</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E13/SUMIF(C:C,C13,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001006</v>
       </c>
       <c r="C13">
@@ -11687,7 +11971,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>93</v>
@@ -11696,24 +11980,24 @@
         <v>5</v>
       </c>
       <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J13" t="str">
+        <v>{"t":"i","i":21017</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21016</v>
-      </c>
-      <c r="K13" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L13" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21017,"c":5,"tr":0}]}</v>
       </c>
       <c r="R13" t="str">
         <f>VLOOKUP(G13,映射表!A:B,2,FALSE)</f>
@@ -11721,16 +12005,16 @@
       </c>
       <c r="S13">
         <f>_xlfn.IFNA(VLOOKUP(F13,物品!B:C,2,FALSE),VLOOKUP(F13,物品!H:I,2,FALSE))</f>
-        <v>21016</v>
+        <v>21017</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E14/SUMIF(C:C,C14,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001007</v>
       </c>
       <c r="C14">
@@ -11743,7 +12027,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>93</v>
@@ -11752,24 +12036,24 @@
         <v>5</v>
       </c>
       <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J14" t="str">
+        <v>{"t":"i","i":21006</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21019</v>
-      </c>
-      <c r="K14" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L14" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21006,"c":5,"tr":0}]}</v>
       </c>
       <c r="R14" t="str">
         <f>VLOOKUP(G14,映射表!A:B,2,FALSE)</f>
@@ -11777,16 +12061,16 @@
       </c>
       <c r="S14">
         <f>_xlfn.IFNA(VLOOKUP(F14,物品!B:C,2,FALSE),VLOOKUP(F14,物品!H:I,2,FALSE))</f>
-        <v>21019</v>
+        <v>21006</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E15/SUMIF(C:C,C15,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001008</v>
       </c>
       <c r="C15">
@@ -11799,7 +12083,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
         <v>93</v>
@@ -11808,24 +12092,24 @@
         <v>5</v>
       </c>
       <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J15" t="str">
+        <v>{"t":"i","i":21016</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21020</v>
-      </c>
-      <c r="K15" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L15" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="R15" t="str">
         <f>VLOOKUP(G15,映射表!A:B,2,FALSE)</f>
@@ -11833,16 +12117,16 @@
       </c>
       <c r="S15">
         <f>_xlfn.IFNA(VLOOKUP(F15,物品!B:C,2,FALSE),VLOOKUP(F15,物品!H:I,2,FALSE))</f>
-        <v>21020</v>
+        <v>21016</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E16/SUMIF(C:C,C16,E:E)</f>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001009</v>
       </c>
       <c r="C16">
@@ -11855,7 +12139,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>93</v>
@@ -11864,24 +12148,24 @@
         <v>5</v>
       </c>
       <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J16" t="str">
+        <v>{"t":"i","i":21015</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21021</v>
-      </c>
-      <c r="K16" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L16" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21015,"c":5,"tr":0}]}</v>
       </c>
       <c r="R16" t="str">
         <f>VLOOKUP(G16,映射表!A:B,2,FALSE)</f>
@@ -11889,16 +12173,16 @@
       </c>
       <c r="S16">
         <f>_xlfn.IFNA(VLOOKUP(F16,物品!B:C,2,FALSE),VLOOKUP(F16,物品!H:I,2,FALSE))</f>
-        <v>21021</v>
+        <v>21015</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E17/SUMIF(C:C,C17,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001010</v>
       </c>
       <c r="C17">
@@ -11908,53 +12192,53 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J17" t="str">
+        <v>{"t":"a","i":4</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21022</v>
-      </c>
-      <c r="K17" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L17" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
       </c>
       <c r="R17" t="str">
         <f>VLOOKUP(G17,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S17">
         <f>_xlfn.IFNA(VLOOKUP(F17,物品!B:C,2,FALSE),VLOOKUP(F17,物品!H:I,2,FALSE))</f>
-        <v>21022</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>E18/SUMIF(C:C,C18,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001011</v>
       </c>
       <c r="C18">
@@ -11964,53 +12248,53 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>154</v>
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":20,"i":[</v>
-      </c>
-      <c r="J18" t="str">
+        <v>{"t":"a","i":7</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21023</v>
-      </c>
-      <c r="K18" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L18" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":20,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
       </c>
       <c r="R18" t="str">
         <f>VLOOKUP(G18,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S18">
         <f>_xlfn.IFNA(VLOOKUP(F18,物品!B:C,2,FALSE),VLOOKUP(F18,物品!H:I,2,FALSE))</f>
-        <v>21023</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E19/SUMIF(C:C,C19,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001012</v>
       </c>
       <c r="C19">
@@ -12023,33 +12307,33 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J19" t="str">
+        <v>{"t":"a","i":10</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":4</v>
-      </c>
-      <c r="K19" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L19" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":4,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
       </c>
       <c r="R19" t="str">
         <f>VLOOKUP(G19,映射表!A:B,2,FALSE)</f>
@@ -12057,16 +12341,16 @@
       </c>
       <c r="S19">
         <f>_xlfn.IFNA(VLOOKUP(F19,物品!B:C,2,FALSE),VLOOKUP(F19,物品!H:I,2,FALSE))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E20/SUMIF(C:C,C20,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001013</v>
       </c>
       <c r="C20">
@@ -12079,33 +12363,33 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J20" t="str">
+        <v>{"t":"a","i":13</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":7</v>
-      </c>
-      <c r="K20" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L20" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":7,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
       </c>
       <c r="R20" t="str">
         <f>VLOOKUP(G20,映射表!A:B,2,FALSE)</f>
@@ -12113,16 +12397,16 @@
       </c>
       <c r="S20">
         <f>_xlfn.IFNA(VLOOKUP(F20,物品!B:C,2,FALSE),VLOOKUP(F20,物品!H:I,2,FALSE))</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E21/SUMIF(C:C,C21,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001014</v>
       </c>
       <c r="C21">
@@ -12135,33 +12419,33 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J21" t="str">
+        <v>{"t":"a","i":16</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":10</v>
-      </c>
-      <c r="K21" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L21" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":10,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
       </c>
       <c r="R21" t="str">
         <f>VLOOKUP(G21,映射表!A:B,2,FALSE)</f>
@@ -12169,16 +12453,16 @@
       </c>
       <c r="S21">
         <f>_xlfn.IFNA(VLOOKUP(F21,物品!B:C,2,FALSE),VLOOKUP(F21,物品!H:I,2,FALSE))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E22/SUMIF(C:C,C22,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001015</v>
       </c>
       <c r="C22">
@@ -12191,33 +12475,33 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J22" t="str">
+        <v>{"t":"a","i":19</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":13</v>
-      </c>
-      <c r="K22" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L22" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":13,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
       </c>
       <c r="R22" t="str">
         <f>VLOOKUP(G22,映射表!A:B,2,FALSE)</f>
@@ -12225,16 +12509,16 @@
       </c>
       <c r="S22">
         <f>_xlfn.IFNA(VLOOKUP(F22,物品!B:C,2,FALSE),VLOOKUP(F22,物品!H:I,2,FALSE))</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E23/SUMIF(C:C,C23,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001016</v>
       </c>
       <c r="C23">
@@ -12247,33 +12531,33 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J23" t="str">
+        <v>{"t":"a","i":22</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":16</v>
-      </c>
-      <c r="K23" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L23" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":16,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
       </c>
       <c r="R23" t="str">
         <f>VLOOKUP(G23,映射表!A:B,2,FALSE)</f>
@@ -12281,16 +12565,16 @@
       </c>
       <c r="S23">
         <f>_xlfn.IFNA(VLOOKUP(F23,物品!B:C,2,FALSE),VLOOKUP(F23,物品!H:I,2,FALSE))</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E24/SUMIF(C:C,C24,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330001017</v>
       </c>
       <c r="C24">
@@ -12303,33 +12587,33 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J24" t="str">
+        <v>{"t":"a","i":25</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":19</v>
-      </c>
-      <c r="K24" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L24" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":19,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
       </c>
       <c r="R24" t="str">
         <f>VLOOKUP(G24,映射表!A:B,2,FALSE)</f>
@@ -12337,16 +12621,16 @@
       </c>
       <c r="S24">
         <f>_xlfn.IFNA(VLOOKUP(F24,物品!B:C,2,FALSE),VLOOKUP(F24,物品!H:I,2,FALSE))</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <f>E25/SUMIF(C:C,C25,E:E)</f>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B25" si="7">C25*1000+D25</f>
         <v>330001018</v>
       </c>
       <c r="C25">
@@ -12359,33 +12643,33 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="str">
+        <f t="shared" ref="I25" si="8">IF(E25=0,"",I$5&amp;E25&amp;I$6)</f>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":22</v>
+        <v>{"t":"a","i":1</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K25" si="9">K$5&amp;H25&amp;K$6</f>
         <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L25" si="10">IF(I25="","",L$6)</f>
         <v>]}</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":22,"c":1,"tr":0}]}</v>
+        <f t="shared" ref="M25" si="11">I25&amp;J25&amp;K25&amp;L25</f>
+        <v>{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
       </c>
       <c r="R25" t="str">
         <f>VLOOKUP(G25,映射表!A:B,2,FALSE)</f>
@@ -12393,124 +12677,40 @@
       </c>
       <c r="S25">
         <f>_xlfn.IFNA(VLOOKUP(F25,物品!B:C,2,FALSE),VLOOKUP(F25,物品!H:I,2,FALSE))</f>
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="7"/>
-        <v>330001019</v>
-      </c>
-      <c r="C26">
-        <v>330001</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="str">
+      <c r="J26" t="e">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":25</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":25,"c":1,"tr":0}]}</v>
-      </c>
-      <c r="R26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R26" t="e">
         <f>VLOOKUP(G26,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
-      </c>
-      <c r="S26">
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
         <f>_xlfn.IFNA(VLOOKUP(F26,物品!B:C,2,FALSE),VLOOKUP(F26,物品!H:I,2,FALSE))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27" si="8">C27*1000+D27</f>
-        <v>330001020</v>
-      </c>
-      <c r="C27">
-        <v>330001</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>269</v>
-      </c>
-      <c r="G27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" ref="I27" si="9">IF(E27=0,"",I$5&amp;E27&amp;I$6)</f>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":1</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" ref="K27" si="10">K$5&amp;H27&amp;K$6</f>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" ref="L27" si="11">IF(I27="","",L$6)</f>
-        <v>]}</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" ref="M27" si="12">I27&amp;J27&amp;K27&amp;L27</f>
-        <v>{"g":100,"i":[{"t":"a","i":1,"c":1,"tr":0}]}</v>
-      </c>
-      <c r="R27" t="str">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" t="e">
         <f>VLOOKUP(G27,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
-      </c>
-      <c r="S27">
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
         <f>_xlfn.IFNA(VLOOKUP(F27,物品!B:C,2,FALSE),VLOOKUP(F27,物品!H:I,2,FALSE))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J28" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R28" t="e">
@@ -12522,54 +12722,138 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J29" t="e">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f>E29/SUMIF(C:C,C29,E:E)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>330002001</v>
+      </c>
+      <c r="C29">
+        <v>330002</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21003</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" t="e">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>]}</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"i","i":21003,"c":5,"tr":0}]}</v>
+      </c>
+      <c r="R29" t="str">
         <f>VLOOKUP(G29,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S29">
         <f>_xlfn.IFNA(VLOOKUP(F29,物品!B:C,2,FALSE),VLOOKUP(F29,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21003</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="J30" t="e">
+      <c r="A30">
+        <f>E30/SUMIF(C:C,C30,E:E)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B50" si="12">C30*1000+D30</f>
+        <v>330002002</v>
+      </c>
+      <c r="C30">
+        <v>330002</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21001</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" t="e">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>]}</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
+      </c>
+      <c r="R30" t="str">
         <f>VLOOKUP(G30,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S30">
         <f>_xlfn.IFNA(VLOOKUP(F30,物品!B:C,2,FALSE),VLOOKUP(F30,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" ref="A31:A50" si="13">E31/SUMIF(C:C,C31,E:E)</f>
-        <v>0.05</v>
+        <f>E31/SUMIF(C:C,C31,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B31">
-        <f t="shared" si="7"/>
-        <v>330002001</v>
+        <f t="shared" si="12"/>
+        <v>330002003</v>
       </c>
       <c r="C31">
         <v>330002</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
-      <c r="F31" t="s">
-        <v>226</v>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G31" t="s">
         <v>93</v>
@@ -12578,24 +12862,24 @@
         <v>5</v>
       </c>
       <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J31" t="str">
+        <v>{"t":"i","i":21007</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21001</v>
-      </c>
-      <c r="K31" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L31" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21001,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
       </c>
       <c r="R31" t="str">
         <f>VLOOKUP(G31,映射表!A:B,2,FALSE)</f>
@@ -12603,29 +12887,29 @@
       </c>
       <c r="S31">
         <f>_xlfn.IFNA(VLOOKUP(F31,物品!B:C,2,FALSE),VLOOKUP(F31,物品!H:I,2,FALSE))</f>
-        <v>21001</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E32/SUMIF(C:C,C32,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B54" si="14">C32*1000+D32</f>
-        <v>330002002</v>
+        <f t="shared" si="12"/>
+        <v>330002004</v>
       </c>
       <c r="C32">
         <v>330002</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>100</v>
       </c>
-      <c r="F32" t="s">
-        <v>227</v>
+      <c r="F32" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G32" t="s">
         <v>93</v>
@@ -12634,24 +12918,24 @@
         <v>5</v>
       </c>
       <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J32" t="str">
+        <v>{"t":"i","i":21005</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21007</v>
-      </c>
-      <c r="K32" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L32" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21007,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
       </c>
       <c r="R32" t="str">
         <f>VLOOKUP(G32,映射表!A:B,2,FALSE)</f>
@@ -12659,29 +12943,29 @@
       </c>
       <c r="S32">
         <f>_xlfn.IFNA(VLOOKUP(F32,物品!B:C,2,FALSE),VLOOKUP(F32,物品!H:I,2,FALSE))</f>
-        <v>21007</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E33/SUMIF(C:C,C33,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B33">
-        <f t="shared" si="14"/>
-        <v>330002003</v>
+        <f t="shared" si="12"/>
+        <v>330002005</v>
       </c>
       <c r="C33">
         <v>330002</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
         <v>93</v>
@@ -12690,24 +12974,24 @@
         <v>5</v>
       </c>
       <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J33" t="str">
+        <v>{"t":"i","i":21014</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21010</v>
-      </c>
-      <c r="K33" t="str">
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":5,"tr":0}</v>
-      </c>
-      <c r="L33" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21010,"c":5,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21014,"c":5,"tr":0}]}</v>
       </c>
       <c r="R33" t="str">
         <f>VLOOKUP(G33,映射表!A:B,2,FALSE)</f>
@@ -12715,29 +12999,29 @@
       </c>
       <c r="S33">
         <f>_xlfn.IFNA(VLOOKUP(F33,物品!B:C,2,FALSE),VLOOKUP(F33,物品!H:I,2,FALSE))</f>
-        <v>21010</v>
+        <v>21014</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E34/SUMIF(C:C,C34,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B34">
-        <f t="shared" si="14"/>
-        <v>330002004</v>
+        <f t="shared" ref="B34:B37" si="13">C34*1000+D34</f>
+        <v>330002006</v>
       </c>
       <c r="C34">
         <v>330002</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
         <v>93</v>
@@ -12746,24 +13030,24 @@
         <v>5</v>
       </c>
       <c r="I34" t="str">
+        <f t="shared" ref="I34:I37" si="14">IF(E34=0,"",I$5&amp;E34&amp;I$6)</f>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21011</v>
+        <v>{"t":"i","i":21017</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K34:K37" si="15">K$5&amp;H34&amp;K$6</f>
         <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L34:L37" si="16">IF(I34="","",L$6)</f>
         <v>]}</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21011,"c":5,"tr":0}]}</v>
+        <f t="shared" ref="M34:M37" si="17">I34&amp;J34&amp;K34&amp;L34</f>
+        <v>{"g":100,"i":[{"t":"i","i":21017,"c":5,"tr":0}]}</v>
       </c>
       <c r="R34" t="str">
         <f>VLOOKUP(G34,映射表!A:B,2,FALSE)</f>
@@ -12771,29 +13055,29 @@
       </c>
       <c r="S34">
         <f>_xlfn.IFNA(VLOOKUP(F34,物品!B:C,2,FALSE),VLOOKUP(F34,物品!H:I,2,FALSE))</f>
-        <v>21011</v>
+        <v>21017</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
+        <f>E35/SUMIF(C:C,C35,E:E)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="14"/>
-        <v>330002005</v>
+        <v>330002007</v>
       </c>
       <c r="C35">
         <v>330002</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
         <v>93</v>
@@ -12802,24 +13086,24 @@
         <v>5</v>
       </c>
       <c r="I35" t="str">
+        <f t="shared" si="14"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21013</v>
+        <v>{"t":"i","i":21006</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>]}</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21013,"c":5,"tr":0}]}</v>
+        <f t="shared" si="17"/>
+        <v>{"g":100,"i":[{"t":"i","i":21006,"c":5,"tr":0}]}</v>
       </c>
       <c r="R35" t="str">
         <f>VLOOKUP(G35,映射表!A:B,2,FALSE)</f>
@@ -12827,29 +13111,29 @@
       </c>
       <c r="S35">
         <f>_xlfn.IFNA(VLOOKUP(F35,物品!B:C,2,FALSE),VLOOKUP(F35,物品!H:I,2,FALSE))</f>
-        <v>21013</v>
+        <v>21006</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
+        <f>E36/SUMIF(C:C,C36,E:E)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="14"/>
-        <v>330002006</v>
+        <v>330002008</v>
       </c>
       <c r="C36">
         <v>330002</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>100</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
         <v>93</v>
@@ -12858,23 +13142,23 @@
         <v>5</v>
       </c>
       <c r="I36" t="str">
+        <f t="shared" si="14"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
         <v>{"t":"i","i":21016</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>]}</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>{"g":100,"i":[{"t":"i","i":21016,"c":5,"tr":0}]}</v>
       </c>
       <c r="R36" t="str">
@@ -12888,24 +13172,24 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
+        <f>E37/SUMIF(C:C,C37,E:E)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="14"/>
-        <v>330002007</v>
+        <v>330002009</v>
       </c>
       <c r="C37">
         <v>330002</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
         <v>93</v>
@@ -12914,24 +13198,24 @@
         <v>5</v>
       </c>
       <c r="I37" t="str">
+        <f t="shared" si="14"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21019</v>
+        <v>{"t":"i","i":21015</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>,"c":5,"tr":0}</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>]}</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"i","i":21019,"c":5,"tr":0}]}</v>
+        <f t="shared" si="17"/>
+        <v>{"g":100,"i":[{"t":"i","i":21015,"c":5,"tr":0}]}</v>
       </c>
       <c r="R37" t="str">
         <f>VLOOKUP(G37,映射表!A:B,2,FALSE)</f>
@@ -12939,279 +13223,279 @@
       </c>
       <c r="S37">
         <f>_xlfn.IFNA(VLOOKUP(F37,物品!B:C,2,FALSE),VLOOKUP(F37,物品!H:I,2,FALSE))</f>
-        <v>21019</v>
+        <v>21015</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E38/SUMIF(C:C,C38,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B41" si="15">C38*1000+D38</f>
-        <v>330002008</v>
+        <f t="shared" si="12"/>
+        <v>330002010</v>
       </c>
       <c r="C38">
         <v>330002</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>151</v>
+      <c r="F38" t="s">
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ref="I38:I41" si="16">IF(E38=0,"",I$5&amp;E38&amp;I$6)</f>
+        <f t="shared" si="1"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"a","i":3</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21020</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" ref="K38:K41" si="17">K$5&amp;H38&amp;K$6</f>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ref="L38:L41" si="18">IF(I38="","",L$6)</f>
+        <f t="shared" si="4"/>
         <v>]}</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" ref="M38:M41" si="19">I38&amp;J38&amp;K38&amp;L38</f>
-        <v>{"g":100,"i":[{"t":"i","i":21020,"c":5,"tr":0}]}</v>
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
       </c>
       <c r="R38" t="str">
         <f>VLOOKUP(G38,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S38">
         <f>_xlfn.IFNA(VLOOKUP(F38,物品!B:C,2,FALSE),VLOOKUP(F38,物品!H:I,2,FALSE))</f>
-        <v>21020</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E39/SUMIF(C:C,C39,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B39">
-        <f t="shared" si="15"/>
-        <v>330002009</v>
+        <f t="shared" si="12"/>
+        <v>330002011</v>
       </c>
       <c r="C39">
         <v>330002</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>100</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>152</v>
+      <c r="F39" t="s">
+        <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"a","i":6</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21021</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="17"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>]}</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="19"/>
-        <v>{"g":100,"i":[{"t":"i","i":21021,"c":5,"tr":0}]}</v>
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
       </c>
       <c r="R39" t="str">
         <f>VLOOKUP(G39,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S39">
         <f>_xlfn.IFNA(VLOOKUP(F39,物品!B:C,2,FALSE),VLOOKUP(F39,物品!H:I,2,FALSE))</f>
-        <v>21021</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E40/SUMIF(C:C,C40,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B40">
-        <f t="shared" si="15"/>
-        <v>330002010</v>
+        <f t="shared" si="12"/>
+        <v>330002012</v>
       </c>
       <c r="C40">
         <v>330002</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>100</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>153</v>
+      <c r="F40" t="s">
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"a","i":9</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21022</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="17"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>]}</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="19"/>
-        <v>{"g":100,"i":[{"t":"i","i":21022,"c":5,"tr":0}]}</v>
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
       </c>
       <c r="R40" t="str">
         <f>VLOOKUP(G40,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S40">
         <f>_xlfn.IFNA(VLOOKUP(F40,物品!B:C,2,FALSE),VLOOKUP(F40,物品!H:I,2,FALSE))</f>
-        <v>21022</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E41/SUMIF(C:C,C41,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B41">
-        <f t="shared" si="15"/>
-        <v>330002011</v>
+        <f t="shared" si="12"/>
+        <v>330002013</v>
       </c>
       <c r="C41">
         <v>330002</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>154</v>
+      <c r="F41" t="s">
+        <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"a","i":12</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":21023</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="17"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>]}</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="19"/>
-        <v>{"g":100,"i":[{"t":"i","i":21023,"c":5,"tr":0}]}</v>
+        <f t="shared" si="5"/>
+        <v>{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
       </c>
       <c r="R41" t="str">
         <f>VLOOKUP(G41,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"i","i":</v>
+        <v>{"t":"a","i":</v>
       </c>
       <c r="S41">
         <f>_xlfn.IFNA(VLOOKUP(F41,物品!B:C,2,FALSE),VLOOKUP(F41,物品!H:I,2,FALSE))</f>
-        <v>21023</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E42/SUMIF(C:C,C42,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B42">
-        <f t="shared" si="14"/>
-        <v>330002012</v>
+        <f t="shared" si="12"/>
+        <v>330002014</v>
       </c>
       <c r="C42">
         <v>330002</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J42" t="str">
+        <v>{"t":"a","i":15</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":3</v>
-      </c>
-      <c r="K42" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L42" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M42" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":3,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
       </c>
       <c r="R42" t="str">
         <f>VLOOKUP(G42,映射表!A:B,2,FALSE)</f>
@@ -13219,55 +13503,55 @@
       </c>
       <c r="S42">
         <f>_xlfn.IFNA(VLOOKUP(F42,物品!B:C,2,FALSE),VLOOKUP(F42,物品!H:I,2,FALSE))</f>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E43/SUMIF(C:C,C43,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B43">
-        <f t="shared" si="14"/>
-        <v>330002013</v>
+        <f t="shared" si="12"/>
+        <v>330002015</v>
       </c>
       <c r="C43">
         <v>330002</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J43" t="str">
+        <v>{"t":"a","i":18</v>
+      </c>
+      <c r="K43" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":6</v>
-      </c>
-      <c r="K43" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L43" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":6,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
       </c>
       <c r="R43" t="str">
         <f>VLOOKUP(G43,映射表!A:B,2,FALSE)</f>
@@ -13275,55 +13559,55 @@
       </c>
       <c r="S43">
         <f>_xlfn.IFNA(VLOOKUP(F43,物品!B:C,2,FALSE),VLOOKUP(F43,物品!H:I,2,FALSE))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E44/SUMIF(C:C,C44,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B44">
-        <f t="shared" si="14"/>
-        <v>330002014</v>
+        <f t="shared" si="12"/>
+        <v>330002016</v>
       </c>
       <c r="C44">
         <v>330002</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J44" t="str">
+        <v>{"t":"a","i":21</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":9</v>
-      </c>
-      <c r="K44" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L44" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M44" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":9,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
       </c>
       <c r="R44" t="str">
         <f>VLOOKUP(G44,映射表!A:B,2,FALSE)</f>
@@ -13331,55 +13615,55 @@
       </c>
       <c r="S44">
         <f>_xlfn.IFNA(VLOOKUP(F44,物品!B:C,2,FALSE),VLOOKUP(F44,物品!H:I,2,FALSE))</f>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E45/SUMIF(C:C,C45,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B45">
-        <f t="shared" si="14"/>
-        <v>330002015</v>
+        <f t="shared" si="12"/>
+        <v>330002017</v>
       </c>
       <c r="C45">
         <v>330002</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J45" t="str">
+        <v>{"t":"a","i":24</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":12</v>
-      </c>
-      <c r="K45" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L45" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M45" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":12,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
       </c>
       <c r="R45" t="str">
         <f>VLOOKUP(G45,映射表!A:B,2,FALSE)</f>
@@ -13387,55 +13671,55 @@
       </c>
       <c r="S45">
         <f>_xlfn.IFNA(VLOOKUP(F45,物品!B:C,2,FALSE),VLOOKUP(F45,物品!H:I,2,FALSE))</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E46/SUMIF(C:C,C46,E:E)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B46">
-        <f t="shared" si="14"/>
-        <v>330002016</v>
+        <f t="shared" si="12"/>
+        <v>330002018</v>
       </c>
       <c r="C46">
         <v>330002</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J46" t="str">
+        <v>{"t":"a","i":27</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"a","i":15</v>
-      </c>
-      <c r="K46" t="str">
+        <v>,"c":1,"tr":0}</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L46" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M46" t="str">
         <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":15,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
       </c>
       <c r="R46" t="str">
         <f>VLOOKUP(G46,映射表!A:B,2,FALSE)</f>
@@ -13443,295 +13727,295 @@
       </c>
       <c r="S46">
         <f>_xlfn.IFNA(VLOOKUP(F46,物品!B:C,2,FALSE),VLOOKUP(F46,物品!H:I,2,FALSE))</f>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="14"/>
-        <v>330002017</v>
-      </c>
-      <c r="C47">
-        <v>330002</v>
-      </c>
-      <c r="D47">
-        <v>17</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47" t="s">
-        <v>259</v>
-      </c>
-      <c r="G47" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="J47" t="e">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":18</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":18,"c":1,"tr":0}]}</v>
-      </c>
-      <c r="R47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R47" t="e">
         <f>VLOOKUP(G47,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
-      </c>
-      <c r="S47">
+        <v>#N/A</v>
+      </c>
+      <c r="S47" t="e">
         <f>_xlfn.IFNA(VLOOKUP(F47,物品!B:C,2,FALSE),VLOOKUP(F47,物品!H:I,2,FALSE))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="14"/>
-        <v>330002018</v>
-      </c>
-      <c r="C48">
-        <v>330002</v>
-      </c>
-      <c r="D48">
-        <v>18</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="F48" t="s">
-        <v>262</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="str">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J48" t="e">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":21</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":21,"c":1,"tr":0}]}</v>
-      </c>
-      <c r="R48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R48" t="e">
         <f>VLOOKUP(G48,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
-      </c>
-      <c r="S48">
+        <v>#N/A</v>
+      </c>
+      <c r="S48" t="e">
         <f>_xlfn.IFNA(VLOOKUP(F48,物品!B:C,2,FALSE),VLOOKUP(F48,物品!H:I,2,FALSE))</f>
-        <v>21</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="14"/>
-        <v>330002019</v>
-      </c>
-      <c r="C49">
-        <v>330002</v>
-      </c>
-      <c r="D49">
-        <v>19</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="F49" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="str">
+      <c r="J49" t="e">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":24</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="5"/>
-        <v>]}</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":24,"c":1,"tr":0}]}</v>
-      </c>
-      <c r="R49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R49" t="e">
         <f>VLOOKUP(G49,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
-      </c>
-      <c r="S49">
+        <v>#N/A</v>
+      </c>
+      <c r="S49" t="e">
         <f>_xlfn.IFNA(VLOOKUP(F49,物品!B:C,2,FALSE),VLOOKUP(F49,物品!H:I,2,FALSE))</f>
-        <v>24</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
+        <f>E50/SUMIF(C:C,C50,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B50">
-        <f t="shared" si="14"/>
-        <v>330002020</v>
+        <f t="shared" si="12"/>
+        <v>330003001</v>
       </c>
       <c r="C50">
-        <v>330002</v>
+        <v>330003</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>100</v>
       </c>
-      <c r="F50" t="s">
-        <v>268</v>
+      <c r="F50" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I50" t="str">
+        <f t="shared" ref="I50:I58" si="18">IF(E50=0,"",I$5&amp;E50&amp;I$6)</f>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="2"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"a","i":27</v>
+        <v>{"t":"i","i":21001</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="4"/>
-        <v>,"c":1,"tr":0}</v>
+        <f t="shared" ref="K50:K58" si="19">K$5&amp;H50&amp;K$6</f>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L50:L58" si="20">IF(I50="","",L$6)</f>
         <v>]}</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="6"/>
-        <v>{"g":100,"i":[{"t":"a","i":27,"c":1,"tr":0}]}</v>
+        <f t="shared" ref="M50:M58" si="21">I50&amp;J50&amp;K50&amp;L50</f>
+        <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
       </c>
       <c r="R50" t="str">
         <f>VLOOKUP(G50,映射表!A:B,2,FALSE)</f>
-        <v>{"t":"a","i":</v>
+        <v>{"t":"i","i":</v>
       </c>
       <c r="S50">
         <f>_xlfn.IFNA(VLOOKUP(F50,物品!B:C,2,FALSE),VLOOKUP(F50,物品!H:I,2,FALSE))</f>
-        <v>27</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="J51" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R51" t="e">
+      <c r="A51">
+        <f>E51/SUMIF(C:C,C51,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:B58" si="22">C51*1000+D51</f>
+        <v>330003002</v>
+      </c>
+      <c r="C51">
+        <v>330003</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21002</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="20"/>
+        <v>]}</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="21"/>
+        <v>{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R51" t="str">
         <f>VLOOKUP(G51,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S51">
         <f>_xlfn.IFNA(VLOOKUP(F51,物品!B:C,2,FALSE),VLOOKUP(F51,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J52" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R52" t="e">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f>E52/SUMIF(C:C,C52,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="22"/>
+        <v>330003003</v>
+      </c>
+      <c r="C52">
+        <v>330003</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21003</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="20"/>
+        <v>]}</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="21"/>
+        <v>{"g":100,"i":[{"t":"i","i":21003,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R52" t="str">
         <f>VLOOKUP(G52,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S52">
         <f>_xlfn.IFNA(VLOOKUP(F52,物品!B:C,2,FALSE),VLOOKUP(F52,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21003</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="J53" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R53" t="e">
+      <c r="A53">
+        <f>E53/SUMIF(C:C,C53,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="22"/>
+        <v>330003004</v>
+      </c>
+      <c r="C53">
+        <v>330003</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53">
+        <v>25</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21004</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="20"/>
+        <v>]}</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="21"/>
+        <v>{"g":100,"i":[{"t":"i","i":21004,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R53" t="str">
         <f>VLOOKUP(G53,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S53">
         <f>_xlfn.IFNA(VLOOKUP(F53,物品!B:C,2,FALSE),VLOOKUP(F53,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21004</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <f>E54/SUMIF(C:C,C54,E:E)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B54">
-        <f t="shared" si="14"/>
-        <v>330003001</v>
+        <f t="shared" si="22"/>
+        <v>330003005</v>
       </c>
       <c r="C54">
         <v>330003</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>100</v>
       </c>
-      <c r="F54" t="s">
-        <v>226</v>
+      <c r="F54" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -13740,24 +14024,24 @@
         <v>25</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" ref="I54:I64" si="20">IF(E54=0,"",I$5&amp;E54&amp;I$6)</f>
+        <f t="shared" si="18"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21001</v>
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21005</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" ref="K54:K64" si="21">K$5&amp;H54&amp;K$6</f>
+        <f t="shared" si="19"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" ref="L54:L64" si="22">IF(I54="","",L$6)</f>
+        <f t="shared" si="20"/>
         <v>]}</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" ref="M54:M64" si="23">I54&amp;J54&amp;K54&amp;L54</f>
-        <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
+        <f t="shared" si="21"/>
+        <v>{"g":100,"i":[{"t":"i","i":21005,"c":25,"tr":0}]}</v>
       </c>
       <c r="R54" t="str">
         <f>VLOOKUP(G54,映射表!A:B,2,FALSE)</f>
@@ -13765,29 +14049,29 @@
       </c>
       <c r="S54">
         <f>_xlfn.IFNA(VLOOKUP(F54,物品!B:C,2,FALSE),VLOOKUP(F54,物品!H:I,2,FALSE))</f>
-        <v>21001</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
-        <f t="shared" ref="A55:A64" si="24">E55/SUMIF(C:C,C55,E:E)</f>
-        <v>9.0909090909090912E-2</v>
+        <f>E55/SUMIF(C:C,C55,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B64" si="25">C55*1000+D55</f>
-        <v>330003002</v>
+        <f t="shared" si="22"/>
+        <v>330003006</v>
       </c>
       <c r="C55">
         <v>330003</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>100</v>
       </c>
-      <c r="F55" t="s">
-        <v>227</v>
+      <c r="F55" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -13796,24 +14080,24 @@
         <v>25</v>
       </c>
       <c r="I55" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21006</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="20"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21007</v>
-      </c>
-      <c r="K55" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":25,"tr":0}</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="22"/>
-        <v>]}</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21006,"c":25,"tr":0}]}</v>
       </c>
       <c r="R55" t="str">
         <f>VLOOKUP(G55,映射表!A:B,2,FALSE)</f>
@@ -13821,29 +14105,29 @@
       </c>
       <c r="S55">
         <f>_xlfn.IFNA(VLOOKUP(F55,物品!B:C,2,FALSE),VLOOKUP(F55,物品!H:I,2,FALSE))</f>
-        <v>21007</v>
+        <v>21006</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E56/SUMIF(C:C,C56,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B56">
-        <f t="shared" si="25"/>
-        <v>330003003</v>
+        <f t="shared" si="22"/>
+        <v>330003007</v>
       </c>
       <c r="C56">
         <v>330003</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>100</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>141</v>
+      <c r="F56" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -13852,24 +14136,24 @@
         <v>25</v>
       </c>
       <c r="I56" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21007</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="20"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21010</v>
-      </c>
-      <c r="K56" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M56" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":25,"tr":0}</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="22"/>
-        <v>]}</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
       </c>
       <c r="R56" t="str">
         <f>VLOOKUP(G56,映射表!A:B,2,FALSE)</f>
@@ -13877,29 +14161,29 @@
       </c>
       <c r="S56">
         <f>_xlfn.IFNA(VLOOKUP(F56,物品!B:C,2,FALSE),VLOOKUP(F56,物品!H:I,2,FALSE))</f>
-        <v>21010</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E57/SUMIF(C:C,C57,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B57">
-        <f t="shared" si="25"/>
-        <v>330003004</v>
+        <f t="shared" si="22"/>
+        <v>330003008</v>
       </c>
       <c r="C57">
         <v>330003</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>100</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>142</v>
+      <c r="F57" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -13908,24 +14192,24 @@
         <v>25</v>
       </c>
       <c r="I57" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21008</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="20"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21011</v>
-      </c>
-      <c r="K57" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M57" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":25,"tr":0}</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="22"/>
-        <v>]}</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21008,"c":25,"tr":0}]}</v>
       </c>
       <c r="R57" t="str">
         <f>VLOOKUP(G57,映射表!A:B,2,FALSE)</f>
@@ -13933,29 +14217,29 @@
       </c>
       <c r="S57">
         <f>_xlfn.IFNA(VLOOKUP(F57,物品!B:C,2,FALSE),VLOOKUP(F57,物品!H:I,2,FALSE))</f>
-        <v>21011</v>
+        <v>21008</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E58/SUMIF(C:C,C58,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B58">
-        <f t="shared" si="25"/>
-        <v>330003005</v>
+        <f t="shared" si="22"/>
+        <v>330003009</v>
       </c>
       <c r="C58">
         <v>330003</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>100</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>144</v>
+      <c r="F58" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
@@ -13964,24 +14248,24 @@
         <v>25</v>
       </c>
       <c r="I58" t="str">
+        <f t="shared" si="18"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21009</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="19"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L58" t="str">
         <f t="shared" si="20"/>
-        <v>{"g":100,"i":[</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21013</v>
-      </c>
-      <c r="K58" t="str">
+        <v>]}</v>
+      </c>
+      <c r="M58" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":25,"tr":0}</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="22"/>
-        <v>]}</v>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21009,"c":25,"tr":0}]}</v>
       </c>
       <c r="R58" t="str">
         <f>VLOOKUP(G58,映射表!A:B,2,FALSE)</f>
@@ -13989,29 +14273,29 @@
       </c>
       <c r="S58">
         <f>_xlfn.IFNA(VLOOKUP(F58,物品!B:C,2,FALSE),VLOOKUP(F58,物品!H:I,2,FALSE))</f>
-        <v>21013</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E59/SUMIF(C:C,C59,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B59">
-        <f t="shared" si="25"/>
-        <v>330003006</v>
+        <f t="shared" ref="B59:B68" si="23">C59*1000+D59</f>
+        <v>330003010</v>
       </c>
       <c r="C59">
         <v>330003</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>100</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>147</v>
+      <c r="F59" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="G59" t="s">
         <v>93</v>
@@ -14020,24 +14304,24 @@
         <v>25</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I59:I68" si="24">IF(E59=0,"",I$5&amp;E59&amp;I$6)</f>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21016</v>
+        <f t="shared" ref="J59:J68" si="25">R59&amp;S59</f>
+        <v>{"t":"i","i":21010</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K59:K68" si="26">K$5&amp;H59&amp;K$6</f>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="L59:L68" si="27">IF(I59="","",L$6)</f>
         <v>]}</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+        <f t="shared" ref="M59:M68" si="28">I59&amp;J59&amp;K59&amp;L59</f>
+        <v>{"g":100,"i":[{"t":"i","i":21010,"c":25,"tr":0}]}</v>
       </c>
       <c r="R59" t="str">
         <f>VLOOKUP(G59,映射表!A:B,2,FALSE)</f>
@@ -14045,29 +14329,29 @@
       </c>
       <c r="S59">
         <f>_xlfn.IFNA(VLOOKUP(F59,物品!B:C,2,FALSE),VLOOKUP(F59,物品!H:I,2,FALSE))</f>
-        <v>21016</v>
+        <v>21010</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E60/SUMIF(C:C,C60,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B60">
-        <f t="shared" si="25"/>
-        <v>330003007</v>
+        <f t="shared" si="23"/>
+        <v>330003011</v>
       </c>
       <c r="C60">
         <v>330003</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>150</v>
+      <c r="F60" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="G60" t="s">
         <v>93</v>
@@ -14076,24 +14360,24 @@
         <v>25</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21019</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21011</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21011,"c":25,"tr":0}]}</v>
       </c>
       <c r="R60" t="str">
         <f>VLOOKUP(G60,映射表!A:B,2,FALSE)</f>
@@ -14101,29 +14385,29 @@
       </c>
       <c r="S60">
         <f>_xlfn.IFNA(VLOOKUP(F60,物品!B:C,2,FALSE),VLOOKUP(F60,物品!H:I,2,FALSE))</f>
-        <v>21019</v>
+        <v>21011</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E61/SUMIF(C:C,C61,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B61">
-        <f t="shared" si="25"/>
-        <v>330003008</v>
+        <f t="shared" si="23"/>
+        <v>330003012</v>
       </c>
       <c r="C61">
         <v>330003</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>151</v>
+      <c r="F61" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="G61" t="s">
         <v>93</v>
@@ -14132,24 +14416,24 @@
         <v>25</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21020</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21012</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21020,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21012,"c":25,"tr":0}]}</v>
       </c>
       <c r="R61" t="str">
         <f>VLOOKUP(G61,映射表!A:B,2,FALSE)</f>
@@ -14157,29 +14441,29 @@
       </c>
       <c r="S61">
         <f>_xlfn.IFNA(VLOOKUP(F61,物品!B:C,2,FALSE),VLOOKUP(F61,物品!H:I,2,FALSE))</f>
-        <v>21020</v>
+        <v>21012</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E62/SUMIF(C:C,C62,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B62">
-        <f t="shared" si="25"/>
-        <v>330003009</v>
+        <f t="shared" si="23"/>
+        <v>330003013</v>
       </c>
       <c r="C62">
         <v>330003</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>152</v>
+      <c r="F62" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="G62" t="s">
         <v>93</v>
@@ -14188,24 +14472,24 @@
         <v>25</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21021</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21013</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21021,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
       </c>
       <c r="R62" t="str">
         <f>VLOOKUP(G62,映射表!A:B,2,FALSE)</f>
@@ -14213,29 +14497,29 @@
       </c>
       <c r="S62">
         <f>_xlfn.IFNA(VLOOKUP(F62,物品!B:C,2,FALSE),VLOOKUP(F62,物品!H:I,2,FALSE))</f>
-        <v>21021</v>
+        <v>21013</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E63/SUMIF(C:C,C63,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B63">
-        <f t="shared" si="25"/>
-        <v>330003010</v>
+        <f t="shared" si="23"/>
+        <v>330003014</v>
       </c>
       <c r="C63">
         <v>330003</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>100</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>153</v>
+      <c r="F63" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="G63" t="s">
         <v>93</v>
@@ -14244,24 +14528,24 @@
         <v>25</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21022</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21014</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21022,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21014,"c":25,"tr":0}]}</v>
       </c>
       <c r="R63" t="str">
         <f>VLOOKUP(G63,映射表!A:B,2,FALSE)</f>
@@ -14269,29 +14553,29 @@
       </c>
       <c r="S63">
         <f>_xlfn.IFNA(VLOOKUP(F63,物品!B:C,2,FALSE),VLOOKUP(F63,物品!H:I,2,FALSE))</f>
-        <v>21022</v>
+        <v>21014</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="24"/>
-        <v>9.0909090909090912E-2</v>
+        <f>E64/SUMIF(C:C,C64,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B64">
-        <f t="shared" si="25"/>
-        <v>330003011</v>
+        <f t="shared" si="23"/>
+        <v>330003015</v>
       </c>
       <c r="C64">
         <v>330003</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>100</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>154</v>
+      <c r="F64" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="G64" t="s">
         <v>93</v>
@@ -14300,24 +14584,24 @@
         <v>25</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21023</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21015</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="23"/>
-        <v>{"g":100,"i":[{"t":"i","i":21023,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21015,"c":25,"tr":0}]}</v>
       </c>
       <c r="R64" t="str">
         <f>VLOOKUP(G64,映射表!A:B,2,FALSE)</f>
@@ -14325,77 +14609,197 @@
       </c>
       <c r="S64">
         <f>_xlfn.IFNA(VLOOKUP(F64,物品!B:C,2,FALSE),VLOOKUP(F64,物品!H:I,2,FALSE))</f>
-        <v>21023</v>
+        <v>21015</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="J65" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R65" t="e">
+      <c r="A65">
+        <f>E65/SUMIF(C:C,C65,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="23"/>
+        <v>330003016</v>
+      </c>
+      <c r="C65">
+        <v>330003</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65">
+        <v>25</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="24"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21016</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="26"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="27"/>
+        <v>]}</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R65" t="str">
         <f>VLOOKUP(G65,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S65" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S65">
         <f>_xlfn.IFNA(VLOOKUP(F65,物品!B:C,2,FALSE),VLOOKUP(F65,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="J66" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" t="e">
+        <v>21016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f>E66/SUMIF(C:C,C66,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="23"/>
+        <v>330003017</v>
+      </c>
+      <c r="C66">
+        <v>330003</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66">
+        <v>25</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="24"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21017</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="26"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="27"/>
+        <v>]}</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21017,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R66" t="str">
         <f>VLOOKUP(G66,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S66" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S66">
         <f>_xlfn.IFNA(VLOOKUP(F66,物品!B:C,2,FALSE),VLOOKUP(F66,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21017</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="J67" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R67" t="e">
+      <c r="A67">
+        <f>E67/SUMIF(C:C,C67,E:E)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="23"/>
+        <v>330003018</v>
+      </c>
+      <c r="C67">
+        <v>330003</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67">
+        <v>25</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="24"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21018</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="26"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="27"/>
+        <v>]}</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21018,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R67" t="str">
         <f>VLOOKUP(G67,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S67" t="e">
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S67">
         <f>_xlfn.IFNA(VLOOKUP(F67,物品!B:C,2,FALSE),VLOOKUP(F67,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
+        <v>21018</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" ref="A68" si="26">E68/SUMIF(C:C,C68,E:E)</f>
-        <v>1</v>
+        <f>E68/SUMIF(C:C,C68,E:E)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B72" si="27">C68*1000+D68</f>
-        <v>330004001</v>
+        <f t="shared" si="23"/>
+        <v>330003019</v>
       </c>
       <c r="C68">
-        <v>330004</v>
+        <v>330003</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
-      <c r="F68" t="s">
-        <v>227</v>
+      <c r="F68" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="G68" t="s">
         <v>93</v>
@@ -14404,24 +14808,24 @@
         <v>25</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I72" si="28">IF(E68=0,"",I$5&amp;E68&amp;I$6)</f>
+        <f t="shared" si="24"/>
         <v>{"g":100,"i":[</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21007</v>
+        <f t="shared" si="25"/>
+        <v>{"t":"i","i":21019</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" ref="K68:K72" si="29">K$5&amp;H68&amp;K$6</f>
+        <f t="shared" si="26"/>
         <v>,"c":25,"tr":0}</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" ref="L68:L72" si="30">IF(I68="","",L$6)</f>
+        <f t="shared" si="27"/>
         <v>]}</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" ref="M68:M72" si="31">I68&amp;J68&amp;K68&amp;L68</f>
-        <v>{"g":100,"i":[{"t":"i","i":21007,"c":25,"tr":0}]}</v>
+        <f t="shared" si="28"/>
+        <v>{"g":100,"i":[{"t":"i","i":21019,"c":25,"tr":0}]}</v>
       </c>
       <c r="R68" t="str">
         <f>VLOOKUP(G68,映射表!A:B,2,FALSE)</f>
@@ -14429,26 +14833,17 @@
       </c>
       <c r="S68">
         <f>_xlfn.IFNA(VLOOKUP(F68,物品!B:C,2,FALSE),VLOOKUP(F68,物品!H:I,2,FALSE))</f>
-        <v>21007</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="J69" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R69" t="e">
-        <f>VLOOKUP(G69,映射表!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S69" t="e">
-        <f>_xlfn.IFNA(VLOOKUP(F69,物品!B:C,2,FALSE),VLOOKUP(F69,物品!H:I,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
       <c r="J70" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R70" t="e">
@@ -14460,9 +14855,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
       <c r="J71" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R71" t="e">
@@ -14475,76 +14872,201 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <f t="shared" ref="A72" si="32">E72/SUMIF(C:C,C72,E:E)</f>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="J72" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R72" t="e">
+        <f>VLOOKUP(G72,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S72" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F72,物品!B:C,2,FALSE),VLOOKUP(F72,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <f>E73/SUMIF(C:C,C73,E:E)</f>
         <v>1</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="27"/>
+      <c r="B73">
+        <f t="shared" ref="B73:B77" si="29">C73*1000+D73</f>
+        <v>330004001</v>
+      </c>
+      <c r="C73">
+        <v>330004</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73">
+        <v>25</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" ref="I73:I77" si="30">IF(E73=0,"",I$5&amp;E73&amp;I$6)</f>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21001</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73:K77" si="31">K$5&amp;H73&amp;K$6</f>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" ref="L73:L77" si="32">IF(I73="","",L$6)</f>
+        <v>]}</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" ref="M73:M77" si="33">I73&amp;J73&amp;K73&amp;L73</f>
+        <v>{"g":100,"i":[{"t":"i","i":21001,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R73" t="str">
+        <f>VLOOKUP(G73,映射表!A:B,2,FALSE)</f>
+        <v>{"t":"i","i":</v>
+      </c>
+      <c r="S73">
+        <f>_xlfn.IFNA(VLOOKUP(F73,物品!B:C,2,FALSE),VLOOKUP(F73,物品!H:I,2,FALSE))</f>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J74" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R74" t="e">
+        <f>VLOOKUP(G74,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S74" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F74,物品!B:C,2,FALSE),VLOOKUP(F74,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J75" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R75" t="e">
+        <f>VLOOKUP(G75,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S75" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F75,物品!B:C,2,FALSE),VLOOKUP(F75,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J76" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R76" t="e">
+        <f>VLOOKUP(G76,映射表!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S76" t="e">
+        <f>_xlfn.IFNA(VLOOKUP(F76,物品!B:C,2,FALSE),VLOOKUP(F76,物品!H:I,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <f>E77/SUMIF(C:C,C77,E:E)</f>
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="29"/>
         <v>330005001</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>330005</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>1</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>100</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F77" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" t="s">
         <v>93</v>
       </c>
-      <c r="H72">
+      <c r="H77">
         <v>25</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="28"/>
+      <c r="I77" t="str">
+        <f t="shared" si="30"/>
         <v>{"g":100,"i":[</v>
       </c>
-      <c r="J72" t="str">
-        <f t="shared" si="3"/>
-        <v>{"t":"i","i":21013</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="29"/>
+      <c r="J77" t="str">
+        <f t="shared" si="2"/>
+        <v>{"t":"i","i":21002</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="31"/>
         <v>,"c":25,"tr":0}</v>
       </c>
-      <c r="L72" t="str">
-        <f t="shared" si="30"/>
+      <c r="L77" t="str">
+        <f t="shared" si="32"/>
         <v>]}</v>
       </c>
-      <c r="M72" t="str">
-        <f t="shared" si="31"/>
-        <v>{"g":100,"i":[{"t":"i","i":21013,"c":25,"tr":0}]}</v>
-      </c>
-      <c r="R72" t="str">
-        <f>VLOOKUP(G72,映射表!A:B,2,FALSE)</f>
+      <c r="M77" t="str">
+        <f t="shared" si="33"/>
+        <v>{"g":100,"i":[{"t":"i","i":21002,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="R77" t="str">
+        <f>VLOOKUP(G77,映射表!A:B,2,FALSE)</f>
         <v>{"t":"i","i":</v>
       </c>
-      <c r="S72">
-        <f>_xlfn.IFNA(VLOOKUP(F72,物品!B:C,2,FALSE),VLOOKUP(F72,物品!H:I,2,FALSE))</f>
-        <v>21013</v>
+      <c r="S77">
+        <f>_xlfn.IFNA(VLOOKUP(F77,物品!B:C,2,FALSE),VLOOKUP(F77,物品!H:I,2,FALSE))</f>
+        <v>21002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F50:F68">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -14638,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="I4" s="1">
         <f>G4</f>
@@ -14664,7 +15186,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I30" si="0">G5</f>
@@ -14690,7 +15212,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
@@ -14716,7 +15238,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
@@ -14742,7 +15264,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
@@ -14768,7 +15290,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
@@ -14794,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
@@ -14820,7 +15342,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
@@ -14846,7 +15368,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
@@ -14872,7 +15394,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
@@ -14898,7 +15420,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
@@ -14924,7 +15446,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
@@ -14950,7 +15472,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
@@ -14976,7 +15498,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
@@ -15002,7 +15524,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
@@ -15028,7 +15550,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
@@ -15054,7 +15576,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
@@ -15080,7 +15602,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
@@ -15106,7 +15628,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
@@ -15132,7 +15654,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
@@ -15158,7 +15680,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
@@ -15184,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
@@ -15210,7 +15732,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
@@ -15236,7 +15758,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
@@ -15262,7 +15784,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="0"/>
@@ -15288,7 +15810,7 @@
         <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
@@ -15314,7 +15836,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="0"/>
@@ -16353,8 +16875,8 @@
       <c r="A96">
         <v>21001</v>
       </c>
-      <c r="B96" t="s">
-        <v>132</v>
+      <c r="B96" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="C96">
         <v>21001</v>
@@ -16364,8 +16886,8 @@
       <c r="A97">
         <v>21002</v>
       </c>
-      <c r="B97" t="s">
-        <v>133</v>
+      <c r="B97" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C97">
         <v>21002</v>
@@ -16375,8 +16897,8 @@
       <c r="A98">
         <v>21003</v>
       </c>
-      <c r="B98" t="s">
-        <v>134</v>
+      <c r="B98" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="C98">
         <v>21003</v>
@@ -16386,8 +16908,8 @@
       <c r="A99">
         <v>21004</v>
       </c>
-      <c r="B99" t="s">
-        <v>135</v>
+      <c r="B99" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C99">
         <v>21004</v>
@@ -16397,8 +16919,8 @@
       <c r="A100">
         <v>21005</v>
       </c>
-      <c r="B100" t="s">
-        <v>136</v>
+      <c r="B100" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C100">
         <v>21005</v>
@@ -16408,8 +16930,8 @@
       <c r="A101">
         <v>21006</v>
       </c>
-      <c r="B101" t="s">
-        <v>137</v>
+      <c r="B101" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="C101">
         <v>21006</v>
@@ -16419,8 +16941,8 @@
       <c r="A102">
         <v>21007</v>
       </c>
-      <c r="B102" t="s">
-        <v>138</v>
+      <c r="B102" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C102">
         <v>21007</v>
@@ -16430,8 +16952,8 @@
       <c r="A103">
         <v>21008</v>
       </c>
-      <c r="B103" t="s">
-        <v>139</v>
+      <c r="B103" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="C103">
         <v>21008</v>
@@ -16441,8 +16963,8 @@
       <c r="A104">
         <v>21009</v>
       </c>
-      <c r="B104" t="s">
-        <v>140</v>
+      <c r="B104" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C104">
         <v>21009</v>
@@ -16452,8 +16974,8 @@
       <c r="A105">
         <v>21010</v>
       </c>
-      <c r="B105" t="s">
-        <v>141</v>
+      <c r="B105" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C105">
         <v>21010</v>
@@ -16463,8 +16985,8 @@
       <c r="A106">
         <v>21011</v>
       </c>
-      <c r="B106" t="s">
-        <v>142</v>
+      <c r="B106" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="C106">
         <v>21011</v>
@@ -16474,8 +16996,8 @@
       <c r="A107">
         <v>21012</v>
       </c>
-      <c r="B107" t="s">
-        <v>143</v>
+      <c r="B107" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="C107">
         <v>21012</v>
@@ -16485,8 +17007,8 @@
       <c r="A108">
         <v>21013</v>
       </c>
-      <c r="B108" t="s">
-        <v>144</v>
+      <c r="B108" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C108">
         <v>21013</v>
@@ -16496,8 +17018,8 @@
       <c r="A109">
         <v>21014</v>
       </c>
-      <c r="B109" t="s">
-        <v>145</v>
+      <c r="B109" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="C109">
         <v>21014</v>
@@ -16507,8 +17029,8 @@
       <c r="A110">
         <v>21015</v>
       </c>
-      <c r="B110" t="s">
-        <v>146</v>
+      <c r="B110" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C110">
         <v>21015</v>
@@ -16518,8 +17040,8 @@
       <c r="A111">
         <v>21016</v>
       </c>
-      <c r="B111" t="s">
-        <v>147</v>
+      <c r="B111" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C111">
         <v>21016</v>
@@ -16529,8 +17051,8 @@
       <c r="A112">
         <v>21017</v>
       </c>
-      <c r="B112" t="s">
-        <v>148</v>
+      <c r="B112" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="C112">
         <v>21017</v>
@@ -16540,8 +17062,8 @@
       <c r="A113">
         <v>21018</v>
       </c>
-      <c r="B113" t="s">
-        <v>149</v>
+      <c r="B113" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C113">
         <v>21018</v>
@@ -16551,8 +17073,8 @@
       <c r="A114">
         <v>21019</v>
       </c>
-      <c r="B114" t="s">
-        <v>150</v>
+      <c r="B114" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C114">
         <v>21019</v>
@@ -16562,8 +17084,8 @@
       <c r="A115">
         <v>21020</v>
       </c>
-      <c r="B115" t="s">
-        <v>151</v>
+      <c r="B115" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C115">
         <v>21020</v>
@@ -16573,8 +17095,8 @@
       <c r="A116">
         <v>21021</v>
       </c>
-      <c r="B116" t="s">
-        <v>152</v>
+      <c r="B116" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="C116">
         <v>21021</v>
@@ -16584,8 +17106,8 @@
       <c r="A117">
         <v>21022</v>
       </c>
-      <c r="B117" t="s">
-        <v>153</v>
+      <c r="B117" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C117">
         <v>21022</v>
@@ -16595,8 +17117,8 @@
       <c r="A118">
         <v>21023</v>
       </c>
-      <c r="B118" t="s">
-        <v>154</v>
+      <c r="B118" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="C118">
         <v>21023</v>
@@ -16606,8 +17128,8 @@
       <c r="A119">
         <v>21024</v>
       </c>
-      <c r="B119" t="s">
-        <v>155</v>
+      <c r="B119" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="C119">
         <v>21024</v>
@@ -16911,244 +17433,244 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>23001</v>
       </c>
-      <c r="B147" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147">
+      <c r="B147" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="2">
         <v>23001</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148">
+      <c r="A148" s="11">
         <v>23002</v>
       </c>
-      <c r="B148" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="11">
         <v>23002</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>23003</v>
       </c>
-      <c r="B149" t="s">
-        <v>158</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" s="2">
         <v>23003</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150">
+      <c r="A150" s="11">
         <v>23004</v>
       </c>
-      <c r="B150" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150">
+      <c r="B150" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="11">
         <v>23004</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>23005</v>
       </c>
-      <c r="B151" t="s">
-        <v>160</v>
-      </c>
-      <c r="C151">
+      <c r="B151" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="2">
         <v>23005</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152">
+      <c r="A152" s="12">
         <v>23011</v>
       </c>
-      <c r="B152" t="s">
-        <v>161</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C152" s="12">
         <v>23011</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153">
+      <c r="A153" s="12">
         <v>23012</v>
       </c>
-      <c r="B153" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153">
+      <c r="B153" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" s="12">
         <v>23012</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154">
+      <c r="A154" s="12">
         <v>23021</v>
       </c>
-      <c r="B154" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154">
+      <c r="B154" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C154" s="12">
         <v>23021</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155">
+      <c r="A155" s="12">
         <v>23022</v>
       </c>
-      <c r="B155" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155">
+      <c r="B155" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C155" s="12">
         <v>23022</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156">
+      <c r="A156" s="12">
         <v>23031</v>
       </c>
-      <c r="B156" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" s="12">
         <v>23031</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157">
+      <c r="A157" s="12">
         <v>23032</v>
       </c>
-      <c r="B157" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157">
+      <c r="B157" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" s="12">
         <v>23032</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158">
+      <c r="A158" s="12">
         <v>23041</v>
       </c>
-      <c r="B158" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158">
+      <c r="B158" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C158" s="12">
         <v>23041</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159">
+      <c r="A159" s="12">
         <v>23042</v>
       </c>
-      <c r="B159" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159">
+      <c r="B159" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C159" s="12">
         <v>23042</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160">
+      <c r="A160" s="12">
         <v>23051</v>
       </c>
-      <c r="B160" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160">
+      <c r="B160" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C160" s="12">
         <v>23051</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161">
+      <c r="A161" s="12">
         <v>23052</v>
       </c>
-      <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161">
+      <c r="B161" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" s="12">
         <v>23052</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162">
+      <c r="A162" s="13">
         <v>24010</v>
       </c>
-      <c r="B162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C162">
+      <c r="B162" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" s="13">
         <v>24010</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163">
+      <c r="A163" s="13">
         <v>24020</v>
       </c>
-      <c r="B163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163">
+      <c r="B163" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" s="13">
         <v>24020</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164">
+      <c r="A164" s="13">
         <v>24030</v>
       </c>
-      <c r="B164" t="s">
-        <v>173</v>
-      </c>
-      <c r="C164">
+      <c r="B164" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C164" s="13">
         <v>24030</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165">
+      <c r="A165" s="13">
         <v>24040</v>
       </c>
-      <c r="B165" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165">
+      <c r="B165" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" s="13">
         <v>24040</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166">
+      <c r="A166" s="13">
         <v>24050</v>
       </c>
-      <c r="B166" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166">
+      <c r="B166" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" s="13">
         <v>24050</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167">
+      <c r="A167" s="13">
         <v>24011</v>
       </c>
-      <c r="B167" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167">
+      <c r="B167" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C167" s="13">
         <v>24011</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168">
+      <c r="A168" s="13">
         <v>24012</v>
       </c>
-      <c r="B168" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168">
+      <c r="B168" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" s="13">
         <v>24012</v>
       </c>
     </row>
@@ -17156,8 +17678,8 @@
       <c r="A169">
         <v>24021</v>
       </c>
-      <c r="B169" t="s">
-        <v>178</v>
+      <c r="B169" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C169">
         <v>24021</v>
@@ -17167,8 +17689,8 @@
       <c r="A170">
         <v>24022</v>
       </c>
-      <c r="B170" t="s">
-        <v>179</v>
+      <c r="B170" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C170">
         <v>24022</v>
@@ -17178,8 +17700,8 @@
       <c r="A171">
         <v>24031</v>
       </c>
-      <c r="B171" t="s">
-        <v>180</v>
+      <c r="B171" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C171">
         <v>24031</v>
@@ -17189,8 +17711,8 @@
       <c r="A172">
         <v>24032</v>
       </c>
-      <c r="B172" t="s">
-        <v>181</v>
+      <c r="B172" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C172">
         <v>24032</v>
@@ -17200,8 +17722,8 @@
       <c r="A173">
         <v>24041</v>
       </c>
-      <c r="B173" t="s">
-        <v>182</v>
+      <c r="B173" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C173">
         <v>24041</v>
@@ -17211,8 +17733,8 @@
       <c r="A174">
         <v>24042</v>
       </c>
-      <c r="B174" t="s">
-        <v>183</v>
+      <c r="B174" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C174">
         <v>24042</v>
@@ -17222,8 +17744,8 @@
       <c r="A175">
         <v>24051</v>
       </c>
-      <c r="B175" t="s">
-        <v>184</v>
+      <c r="B175" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C175">
         <v>24051</v>
@@ -17233,8 +17755,8 @@
       <c r="A176">
         <v>24052</v>
       </c>
-      <c r="B176" t="s">
-        <v>185</v>
+      <c r="B176" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C176">
         <v>24052</v>
@@ -17244,8 +17766,8 @@
       <c r="A177">
         <v>24061</v>
       </c>
-      <c r="B177" t="s">
-        <v>186</v>
+      <c r="B177" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C177">
         <v>24061</v>
@@ -17255,8 +17777,8 @@
       <c r="A178">
         <v>24062</v>
       </c>
-      <c r="B178" t="s">
-        <v>187</v>
+      <c r="B178" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C178">
         <v>24062</v>
@@ -17266,8 +17788,8 @@
       <c r="A179">
         <v>24071</v>
       </c>
-      <c r="B179" t="s">
-        <v>188</v>
+      <c r="B179" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C179">
         <v>24071</v>
@@ -17277,8 +17799,8 @@
       <c r="A180">
         <v>24072</v>
       </c>
-      <c r="B180" t="s">
-        <v>189</v>
+      <c r="B180" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C180">
         <v>24072</v>
@@ -17288,8 +17810,8 @@
       <c r="A181">
         <v>24081</v>
       </c>
-      <c r="B181" t="s">
-        <v>190</v>
+      <c r="B181" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C181">
         <v>24081</v>
@@ -17299,8 +17821,8 @@
       <c r="A182">
         <v>24082</v>
       </c>
-      <c r="B182" t="s">
-        <v>191</v>
+      <c r="B182" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C182">
         <v>24082</v>
@@ -17310,8 +17832,8 @@
       <c r="A183">
         <v>24091</v>
       </c>
-      <c r="B183" t="s">
-        <v>192</v>
+      <c r="B183" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C183">
         <v>24091</v>
@@ -17321,8 +17843,8 @@
       <c r="A184">
         <v>24092</v>
       </c>
-      <c r="B184" t="s">
-        <v>193</v>
+      <c r="B184" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C184">
         <v>24092</v>
@@ -17332,8 +17854,8 @@
       <c r="A185">
         <v>25011</v>
       </c>
-      <c r="B185" t="s">
-        <v>194</v>
+      <c r="B185" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C185">
         <v>25011</v>
@@ -17343,8 +17865,8 @@
       <c r="A186">
         <v>25012</v>
       </c>
-      <c r="B186" t="s">
-        <v>195</v>
+      <c r="B186" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="C186">
         <v>25012</v>
@@ -17354,8 +17876,8 @@
       <c r="A187">
         <v>25021</v>
       </c>
-      <c r="B187" t="s">
-        <v>196</v>
+      <c r="B187" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C187">
         <v>25021</v>
@@ -17365,8 +17887,8 @@
       <c r="A188">
         <v>25022</v>
       </c>
-      <c r="B188" t="s">
-        <v>197</v>
+      <c r="B188" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="C188">
         <v>25022</v>
@@ -17376,8 +17898,8 @@
       <c r="A189">
         <v>25031</v>
       </c>
-      <c r="B189" t="s">
-        <v>198</v>
+      <c r="B189" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C189">
         <v>25031</v>
@@ -17387,8 +17909,8 @@
       <c r="A190">
         <v>25032</v>
       </c>
-      <c r="B190" t="s">
-        <v>199</v>
+      <c r="B190" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="C190">
         <v>25032</v>
@@ -17398,8 +17920,8 @@
       <c r="A191">
         <v>25041</v>
       </c>
-      <c r="B191" t="s">
-        <v>200</v>
+      <c r="B191" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C191">
         <v>25041</v>
@@ -17409,8 +17931,8 @@
       <c r="A192">
         <v>25042</v>
       </c>
-      <c r="B192" t="s">
-        <v>201</v>
+      <c r="B192" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C192">
         <v>25042</v>
@@ -17420,8 +17942,8 @@
       <c r="A193">
         <v>25051</v>
       </c>
-      <c r="B193" t="s">
-        <v>202</v>
+      <c r="B193" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C193">
         <v>25051</v>
@@ -17431,8 +17953,8 @@
       <c r="A194">
         <v>25052</v>
       </c>
-      <c r="B194" t="s">
-        <v>203</v>
+      <c r="B194" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C194">
         <v>25052</v>
@@ -17442,8 +17964,8 @@
       <c r="A195">
         <v>25061</v>
       </c>
-      <c r="B195" t="s">
-        <v>204</v>
+      <c r="B195" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C195">
         <v>25061</v>
@@ -17453,8 +17975,8 @@
       <c r="A196">
         <v>25062</v>
       </c>
-      <c r="B196" t="s">
-        <v>205</v>
+      <c r="B196" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C196">
         <v>25062</v>
@@ -17464,8 +17986,8 @@
       <c r="A197">
         <v>25071</v>
       </c>
-      <c r="B197" t="s">
-        <v>206</v>
+      <c r="B197" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C197">
         <v>25071</v>
@@ -17475,8 +17997,8 @@
       <c r="A198">
         <v>25072</v>
       </c>
-      <c r="B198" t="s">
-        <v>207</v>
+      <c r="B198" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C198">
         <v>25072</v>
@@ -17486,8 +18008,8 @@
       <c r="A199">
         <v>25081</v>
       </c>
-      <c r="B199" t="s">
-        <v>208</v>
+      <c r="B199" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C199">
         <v>25081</v>
@@ -17497,8 +18019,8 @@
       <c r="A200">
         <v>25082</v>
       </c>
-      <c r="B200" t="s">
-        <v>209</v>
+      <c r="B200" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C200">
         <v>25082</v>
@@ -17508,8 +18030,8 @@
       <c r="A201">
         <v>26001</v>
       </c>
-      <c r="B201" t="s">
-        <v>210</v>
+      <c r="B201" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C201">
         <v>26001</v>
@@ -17519,8 +18041,8 @@
       <c r="A202">
         <v>26002</v>
       </c>
-      <c r="B202" t="s">
-        <v>211</v>
+      <c r="B202" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C202">
         <v>26002</v>
@@ -17530,8 +18052,8 @@
       <c r="A203">
         <v>26003</v>
       </c>
-      <c r="B203" t="s">
-        <v>212</v>
+      <c r="B203" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C203">
         <v>26003</v>
@@ -17541,8 +18063,8 @@
       <c r="A204">
         <v>27011</v>
       </c>
-      <c r="B204" t="s">
-        <v>213</v>
+      <c r="B204" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C204">
         <v>27011</v>
@@ -17552,8 +18074,8 @@
       <c r="A205">
         <v>27012</v>
       </c>
-      <c r="B205" t="s">
-        <v>214</v>
+      <c r="B205" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C205">
         <v>27012</v>
@@ -17563,8 +18085,8 @@
       <c r="A206">
         <v>27013</v>
       </c>
-      <c r="B206" t="s">
-        <v>215</v>
+      <c r="B206" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C206">
         <v>27013</v>
@@ -17572,67 +18094,79 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207">
+        <f t="shared" ref="A207:C212" si="1">A204+10</f>
         <v>27021</v>
       </c>
-      <c r="B207" t="s">
-        <v>216</v>
+      <c r="B207" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C207">
+        <f t="shared" si="1"/>
         <v>27021</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208">
+        <f t="shared" si="1"/>
         <v>27022</v>
       </c>
-      <c r="B208" t="s">
-        <v>217</v>
+      <c r="B208" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C208">
+        <f t="shared" si="1"/>
         <v>27022</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209">
+        <f t="shared" si="1"/>
         <v>27023</v>
       </c>
-      <c r="B209" t="s">
-        <v>218</v>
+      <c r="B209" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C209">
+        <f t="shared" si="1"/>
         <v>27023</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210">
+        <f t="shared" si="1"/>
         <v>27031</v>
       </c>
-      <c r="B210" t="s">
-        <v>219</v>
+      <c r="B210" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="C210">
+        <f t="shared" si="1"/>
         <v>27031</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211">
+        <f t="shared" si="1"/>
         <v>27032</v>
       </c>
-      <c r="B211" t="s">
-        <v>220</v>
+      <c r="B211" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C211">
+        <f t="shared" si="1"/>
         <v>27032</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212">
+        <f t="shared" si="1"/>
         <v>27033</v>
       </c>
-      <c r="B212" t="s">
-        <v>221</v>
+      <c r="B212" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C212">
+        <f t="shared" si="1"/>
         <v>27033</v>
       </c>
     </row>
@@ -17640,8 +18174,8 @@
       <c r="A213">
         <v>28001</v>
       </c>
-      <c r="B213" t="s">
-        <v>222</v>
+      <c r="B213" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="C213">
         <v>28001</v>
@@ -17651,8 +18185,8 @@
       <c r="A214">
         <v>29001</v>
       </c>
-      <c r="B214" t="s">
-        <v>223</v>
+      <c r="B214" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="C214">
         <v>29001</v>
@@ -17662,8 +18196,8 @@
       <c r="A215">
         <v>29002</v>
       </c>
-      <c r="B215" t="s">
-        <v>224</v>
+      <c r="B215" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="C215">
         <v>29002</v>
@@ -17673,15 +18207,99 @@
       <c r="A216">
         <v>29003</v>
       </c>
-      <c r="B216" t="s">
-        <v>225</v>
+      <c r="B216" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="C216">
         <v>29003</v>
       </c>
     </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B115:B119">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B114">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17710,10 +18328,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
